--- a/data/raw/guadua_leaf_raw_3.xlsx
+++ b/data/raw/guadua_leaf_raw_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elkam\Documents\Guadua_leaf_project\guadua_leaf\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DCD31B-623B-4A31-A2BA-7BE33FA28583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD226A90-DE1B-46E2-B8F5-CC2999ABEA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="2085" windowWidth="21615" windowHeight="11325" xr2:uid="{12698EE7-FEED-440C-9262-63C944C8A776}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{12698EE7-FEED-440C-9262-63C944C8A776}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="304">
   <si>
     <t>x</t>
   </si>
@@ -390,9 +390,6 @@
     <t>G_trinii_Hatschbach_and_Cervi_53238</t>
   </si>
   <si>
-    <t>Unknown_G_aff_trinii_Clark_and_Windisch_872</t>
-  </si>
-  <si>
     <t>G_aff_trinii</t>
   </si>
   <si>
@@ -687,9 +684,6 @@
     <t>ab_nodular_costal</t>
   </si>
   <si>
-    <t>G_aff_paraguayana</t>
-  </si>
-  <si>
     <t>G_aff_weberbaueri</t>
   </si>
   <si>
@@ -729,12 +723,6 @@
     <t>G_velutina_Clark_and_Tenorio_944</t>
   </si>
   <si>
-    <t>Unknown_G_aff_weberbaueri_Renvoize_4671</t>
-  </si>
-  <si>
-    <t>Unknown_G_aff_virgata_Irwin_and_Soderstrom_6714</t>
-  </si>
-  <si>
     <t>G_aff_virgata</t>
   </si>
   <si>
@@ -766,9 +754,6 @@
   </si>
   <si>
     <t>ab_branch_papillae_long_cells_interstomatal</t>
-  </si>
-  <si>
-    <t>Unknown_G_aff_paraguayana_Londono_and_Guedes_759</t>
   </si>
   <si>
     <t>G_paniculata_Clark_et_al_464</t>
@@ -897,9 +882,6 @@
     <t>G_weberbaueri_Nelson_6026</t>
   </si>
   <si>
-    <t>Unknown_G_aff_sarcocarpa_Calderon_2282</t>
-  </si>
-  <si>
     <t>G_venezuelae_McClure_21251</t>
   </si>
   <si>
@@ -921,9 +903,6 @@
     <t>G_refracta_Irwin_and_Soderstrom_6331</t>
   </si>
   <si>
-    <t>G_aff_sarcocarpa</t>
-  </si>
-  <si>
     <t>G_guzmanii_Clark_et_al_1151</t>
   </si>
   <si>
@@ -940,6 +919,24 @@
   </si>
   <si>
     <t>G_macrospiculata_Rimachi_11035</t>
+  </si>
+  <si>
+    <t>G_paraguayana_Londono_and_Guedes_759</t>
+  </si>
+  <si>
+    <t>Undescribed_G_aff_glomerata_Calderon_2282</t>
+  </si>
+  <si>
+    <t>Undescribed_G_aff_trinii_Clark_and_Windisch_872</t>
+  </si>
+  <si>
+    <t>Undescribed_G_aff_virgata_Irwin_and_Soderstrom_6714</t>
+  </si>
+  <si>
+    <t>Undescribed_G_aff_weberbaueri_Renvoize_4671</t>
+  </si>
+  <si>
+    <t>G_aff_glomerata</t>
   </si>
 </sst>
 </file>
@@ -1505,8 +1502,8 @@
   <dimension ref="A1:BG185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E87" sqref="E87"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E190" sqref="E190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1541,165 +1538,165 @@
         <v>119</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AK1" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AV1" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AY1" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="AV1" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BB1" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="AY1" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="AZ1" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="BE1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="BB1" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="BC1" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="BD1" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BF1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BG1" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="BG1" s="3" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>67</v>
@@ -1717,7 +1714,7 @@
         <v>45</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1896,7 +1893,7 @@
         <v>45</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -2075,7 +2072,7 @@
         <v>45</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -2254,7 +2251,7 @@
         <v>45</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -2433,7 +2430,7 @@
         <v>45</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -2594,7 +2591,7 @@
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>78</v>
@@ -2612,7 +2609,7 @@
         <v>45</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -2773,7 +2770,7 @@
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>73</v>
@@ -2791,7 +2788,7 @@
         <v>45</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2970,7 +2967,7 @@
         <v>45</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -3131,7 +3128,7 @@
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>78</v>
@@ -3149,7 +3146,7 @@
         <v>45</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -3310,7 +3307,7 @@
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>78</v>
@@ -3328,7 +3325,7 @@
         <v>45</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -3507,7 +3504,7 @@
         <v>45</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -3686,7 +3683,7 @@
         <v>46</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -3865,7 +3862,7 @@
         <v>46</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -4026,7 +4023,7 @@
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>67</v>
@@ -4044,7 +4041,7 @@
         <v>46</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -4223,7 +4220,7 @@
         <v>46</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -4402,7 +4399,7 @@
         <v>46</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -4563,7 +4560,7 @@
     </row>
     <row r="18" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>67</v>
@@ -4581,7 +4578,7 @@
         <v>46</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -4760,7 +4757,7 @@
         <v>46</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -4939,7 +4936,7 @@
         <v>46</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -5100,7 +5097,7 @@
     </row>
     <row r="21" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>77</v>
@@ -5118,7 +5115,7 @@
         <v>45</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -5297,7 +5294,7 @@
         <v>45</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -5476,7 +5473,7 @@
         <v>45</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -5655,7 +5652,7 @@
         <v>45</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -5834,7 +5831,7 @@
         <v>45</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -6013,7 +6010,7 @@
         <v>45</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -6192,7 +6189,7 @@
         <v>45</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -6353,7 +6350,7 @@
     </row>
     <row r="28" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>77</v>
@@ -6371,7 +6368,7 @@
         <v>45</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -6532,7 +6529,7 @@
     </row>
     <row r="29" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>77</v>
@@ -6550,7 +6547,7 @@
         <v>45</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -6711,7 +6708,7 @@
     </row>
     <row r="30" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>77</v>
@@ -6729,7 +6726,7 @@
         <v>45</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -6908,7 +6905,7 @@
         <v>45</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -7087,7 +7084,7 @@
         <v>45</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -7266,7 +7263,7 @@
         <v>45</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -7445,7 +7442,7 @@
         <v>45</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -7624,7 +7621,7 @@
         <v>45</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -7785,7 +7782,7 @@
     </row>
     <row r="36" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>68</v>
@@ -7803,7 +7800,7 @@
         <v>45</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -7982,7 +7979,7 @@
         <v>45</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -8143,7 +8140,7 @@
     </row>
     <row r="38" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>68</v>
@@ -8161,7 +8158,7 @@
         <v>45</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -8322,7 +8319,7 @@
     </row>
     <row r="39" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>68</v>
@@ -8340,7 +8337,7 @@
         <v>45</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -8501,7 +8498,7 @@
     </row>
     <row r="40" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A40" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>68</v>
@@ -8519,7 +8516,7 @@
         <v>46</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -8680,7 +8677,7 @@
     </row>
     <row r="41" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A41" s="27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B41" s="23" t="s">
         <v>71</v>
@@ -8698,7 +8695,7 @@
         <v>46</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H41" s="5">
         <v>0</v>
@@ -8859,7 +8856,7 @@
     </row>
     <row r="42" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A42" s="27" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>75</v>
@@ -8877,7 +8874,7 @@
         <v>46</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -9038,7 +9035,7 @@
     </row>
     <row r="43" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A43" s="27" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>75</v>
@@ -9056,7 +9053,7 @@
         <v>46</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -9235,7 +9232,7 @@
         <v>46</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -9396,7 +9393,7 @@
     </row>
     <row r="45" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B45" s="12" t="s">
         <v>71</v>
@@ -9414,7 +9411,7 @@
         <v>46</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -9575,10 +9572,10 @@
     </row>
     <row r="46" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A46" s="27" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>93</v>
@@ -9593,7 +9590,7 @@
         <v>46</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -9754,7 +9751,7 @@
     </row>
     <row r="47" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A47" s="26" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B47" s="12" t="s">
         <v>71</v>
@@ -9763,7 +9760,7 @@
         <v>93</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>100</v>
@@ -9772,7 +9769,7 @@
         <v>46</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -9951,7 +9948,7 @@
         <v>46</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H48" s="5">
         <v>1</v>
@@ -10130,7 +10127,7 @@
         <v>46</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H49" s="5">
         <v>1</v>
@@ -10291,7 +10288,7 @@
     </row>
     <row r="50" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B50" s="12" t="s">
         <v>76</v>
@@ -10309,7 +10306,7 @@
         <v>46</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H50" s="5">
         <v>1</v>
@@ -10470,7 +10467,7 @@
     </row>
     <row r="51" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B51" s="12" t="s">
         <v>76</v>
@@ -10488,7 +10485,7 @@
         <v>46</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H51" s="5">
         <v>1</v>
@@ -10649,7 +10646,7 @@
     </row>
     <row r="52" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A52" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>68</v>
@@ -10667,7 +10664,7 @@
         <v>46</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H52" s="5">
         <v>1</v>
@@ -10828,7 +10825,7 @@
     </row>
     <row r="53" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B53" s="12" t="s">
         <v>68</v>
@@ -10846,7 +10843,7 @@
         <v>46</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H53" s="5">
         <v>1</v>
@@ -11007,7 +11004,7 @@
     </row>
     <row r="54" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B54" s="12" t="s">
         <v>76</v>
@@ -11025,7 +11022,7 @@
         <v>46</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H54" s="5">
         <v>0</v>
@@ -11186,7 +11183,7 @@
     </row>
     <row r="55" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B55" s="12" t="s">
         <v>68</v>
@@ -11204,7 +11201,7 @@
         <v>46</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H55" s="5">
         <v>0</v>
@@ -11365,7 +11362,7 @@
     </row>
     <row r="56" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B56" s="12" t="s">
         <v>79</v>
@@ -11383,7 +11380,7 @@
         <v>46</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H56" s="5">
         <v>1</v>
@@ -11544,7 +11541,7 @@
     </row>
     <row r="57" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B57" s="12" t="s">
         <v>81</v>
@@ -11562,7 +11559,7 @@
         <v>46</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -11723,7 +11720,7 @@
     </row>
     <row r="58" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B58" s="12" t="s">
         <v>76</v>
@@ -11741,7 +11738,7 @@
         <v>46</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H58" s="5">
         <v>1</v>
@@ -11920,7 +11917,7 @@
         <v>46</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -12081,7 +12078,7 @@
     </row>
     <row r="60" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B60" s="12" t="s">
         <v>68</v>
@@ -12099,7 +12096,7 @@
         <v>46</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H60" s="5">
         <v>0</v>
@@ -12260,7 +12257,7 @@
     </row>
     <row r="61" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B61" s="12" t="s">
         <v>79</v>
@@ -12278,7 +12275,7 @@
         <v>46</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H61" s="5">
         <v>0</v>
@@ -12439,7 +12436,7 @@
     </row>
     <row r="62" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B62" s="12" t="s">
         <v>79</v>
@@ -12457,7 +12454,7 @@
         <v>46</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H62" s="5">
         <v>0</v>
@@ -12618,7 +12615,7 @@
     </row>
     <row r="63" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B63" s="12" t="s">
         <v>67</v>
@@ -12627,7 +12624,7 @@
         <v>67</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>99</v>
@@ -12636,7 +12633,7 @@
         <v>46</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -12797,7 +12794,7 @@
     </row>
     <row r="64" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A64" s="17" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B64" s="12" t="s">
         <v>67</v>
@@ -12806,7 +12803,7 @@
         <v>67</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>99</v>
@@ -12815,7 +12812,7 @@
         <v>46</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -12994,7 +12991,7 @@
         <v>45</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -13155,7 +13152,7 @@
     </row>
     <row r="66" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B66" s="12" t="s">
         <v>77</v>
@@ -13173,7 +13170,7 @@
         <v>45</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H66" s="5">
         <v>0</v>
@@ -13352,7 +13349,7 @@
         <v>46</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -13513,7 +13510,7 @@
     </row>
     <row r="68" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B68" s="12" t="s">
         <v>76</v>
@@ -13531,7 +13528,7 @@
         <v>46</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H68" s="5">
         <v>0</v>
@@ -13692,7 +13689,7 @@
     </row>
     <row r="69" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B69" s="12" t="s">
         <v>76</v>
@@ -13710,7 +13707,7 @@
         <v>46</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H69" s="5">
         <v>0</v>
@@ -13871,7 +13868,7 @@
     </row>
     <row r="70" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B70" s="12" t="s">
         <v>76</v>
@@ -13889,7 +13886,7 @@
         <v>46</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H70" s="5">
         <v>0</v>
@@ -14050,7 +14047,7 @@
     </row>
     <row r="71" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A71" s="17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B71" s="12" t="s">
         <v>67</v>
@@ -14068,7 +14065,7 @@
         <v>46</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -14229,7 +14226,7 @@
     </row>
     <row r="72" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B72" s="12" t="s">
         <v>67</v>
@@ -14247,7 +14244,7 @@
         <v>46</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -14408,7 +14405,7 @@
     </row>
     <row r="73" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A73" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B73" s="12" t="s">
         <v>67</v>
@@ -14426,7 +14423,7 @@
         <v>46</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -14605,7 +14602,7 @@
         <v>46</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -14766,7 +14763,7 @@
     </row>
     <row r="75" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A75" s="17" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B75" s="12" t="s">
         <v>74</v>
@@ -14784,7 +14781,7 @@
         <v>46</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -14945,7 +14942,7 @@
     </row>
     <row r="76" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A76" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B76" s="12" t="s">
         <v>67</v>
@@ -14963,7 +14960,7 @@
         <v>46</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -15142,7 +15139,7 @@
         <v>46</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -15303,7 +15300,7 @@
     </row>
     <row r="78" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B78" s="12" t="s">
         <v>74</v>
@@ -15321,7 +15318,7 @@
         <v>46</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -15482,7 +15479,7 @@
     </row>
     <row r="79" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B79" s="12" t="s">
         <v>85</v>
@@ -15500,7 +15497,7 @@
         <v>45</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -15679,7 +15676,7 @@
         <v>45</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -15858,7 +15855,7 @@
         <v>45</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -16019,7 +16016,7 @@
     </row>
     <row r="82" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B82" s="12" t="s">
         <v>72</v>
@@ -16037,7 +16034,7 @@
         <v>45</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -16198,7 +16195,7 @@
     </row>
     <row r="83" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B83" s="12" t="s">
         <v>78</v>
@@ -16216,7 +16213,7 @@
         <v>45</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -16377,7 +16374,7 @@
     </row>
     <row r="84" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B84" s="12" t="s">
         <v>78</v>
@@ -16395,7 +16392,7 @@
         <v>45</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -16556,7 +16553,7 @@
     </row>
     <row r="85" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A85" s="16" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B85" s="12" t="s">
         <v>79</v>
@@ -16574,7 +16571,7 @@
         <v>46</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H85" s="5">
         <v>0</v>
@@ -16735,7 +16732,7 @@
     </row>
     <row r="86" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A86" s="16" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B86" s="12" t="s">
         <v>79</v>
@@ -16753,7 +16750,7 @@
         <v>46</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -16914,7 +16911,7 @@
     </row>
     <row r="87" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A87" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B87" s="12" t="s">
         <v>79</v>
@@ -16932,7 +16929,7 @@
         <v>46</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -17093,7 +17090,7 @@
     </row>
     <row r="88" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A88" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B88" s="12" t="s">
         <v>79</v>
@@ -17111,7 +17108,7 @@
         <v>46</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -17272,7 +17269,7 @@
     </row>
     <row r="89" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A89" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B89" s="12" t="s">
         <v>77</v>
@@ -17290,7 +17287,7 @@
         <v>46</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -17451,7 +17448,7 @@
     </row>
     <row r="90" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A90" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B90" s="12" t="s">
         <v>77</v>
@@ -17469,7 +17466,7 @@
         <v>46</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -17648,7 +17645,7 @@
         <v>46</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -17809,7 +17806,7 @@
     </row>
     <row r="92" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A92" s="16" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B92" s="12" t="s">
         <v>68</v>
@@ -17827,7 +17824,7 @@
         <v>46</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -17988,7 +17985,7 @@
     </row>
     <row r="93" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B93" s="12" t="s">
         <v>68</v>
@@ -18006,7 +18003,7 @@
         <v>45</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -18167,7 +18164,7 @@
     </row>
     <row r="94" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B94" s="12" t="s">
         <v>68</v>
@@ -18185,7 +18182,7 @@
         <v>45</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -18364,7 +18361,7 @@
         <v>45</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -18525,7 +18522,7 @@
     </row>
     <row r="96" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B96" s="12" t="s">
         <v>68</v>
@@ -18543,7 +18540,7 @@
         <v>45</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -18704,10 +18701,10 @@
     </row>
     <row r="97" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C97" s="11" t="s">
         <v>93</v>
@@ -18722,7 +18719,7 @@
         <v>45</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -18883,7 +18880,7 @@
     </row>
     <row r="98" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A98" s="21" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B98" s="12" t="s">
         <v>68</v>
@@ -19241,7 +19238,7 @@
     </row>
     <row r="100" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A100" s="21" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B100" s="12" t="s">
         <v>67</v>
@@ -19420,7 +19417,7 @@
     </row>
     <row r="101" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A101" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B101" s="12" t="s">
         <v>70</v>
@@ -19599,7 +19596,7 @@
     </row>
     <row r="102" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A102" s="21" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B102" s="12" t="s">
         <v>76</v>
@@ -19957,7 +19954,7 @@
     </row>
     <row r="104" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A104" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B104" s="12" t="s">
         <v>71</v>
@@ -20315,7 +20312,7 @@
     </row>
     <row r="106" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A106" s="21" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B106" s="12" t="s">
         <v>77</v>
@@ -20494,7 +20491,7 @@
     </row>
     <row r="107" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A107" s="21" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B107" s="12" t="s">
         <v>68</v>
@@ -21210,7 +21207,7 @@
     </row>
     <row r="111" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A111" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B111" s="12" t="s">
         <v>72</v>
@@ -21389,7 +21386,7 @@
     </row>
     <row r="112" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A112" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B112" s="12" t="s">
         <v>73</v>
@@ -21568,7 +21565,7 @@
     </row>
     <row r="113" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B113" s="12" t="s">
         <v>68</v>
@@ -21586,7 +21583,7 @@
         <v>45</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -21747,7 +21744,7 @@
     </row>
     <row r="114" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B114" s="12" t="s">
         <v>71</v>
@@ -21765,7 +21762,7 @@
         <v>45</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -21926,7 +21923,7 @@
     </row>
     <row r="115" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B115" s="12" t="s">
         <v>71</v>
@@ -21944,7 +21941,7 @@
         <v>45</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -22103,12 +22100,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
-        <v>28</v>
+        <v>298</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C116" s="11" t="s">
         <v>93</v>
@@ -22123,7 +22120,7 @@
         <v>45</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -22147,7 +22144,7 @@
         <v>1</v>
       </c>
       <c r="O116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P116">
         <v>0</v>
@@ -22168,7 +22165,7 @@
         <v>1</v>
       </c>
       <c r="V116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W116">
         <v>1</v>
@@ -22177,7 +22174,7 @@
         <v>0</v>
       </c>
       <c r="Y116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z116">
         <v>0</v>
@@ -22195,7 +22192,7 @@
         <v>1</v>
       </c>
       <c r="AE116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF116">
         <v>1</v>
@@ -22252,7 +22249,7 @@
         <v>1</v>
       </c>
       <c r="AX116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY116">
         <v>1</v>
@@ -22264,10 +22261,10 @@
         <v>1</v>
       </c>
       <c r="BB116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD116">
         <v>0</v>
@@ -22282,12 +22279,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
-        <v>276</v>
+        <v>28</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>263</v>
+        <v>75</v>
       </c>
       <c r="C117" s="11" t="s">
         <v>93</v>
@@ -22302,10 +22299,10 @@
         <v>45</v>
       </c>
       <c r="G117" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117">
         <v>1</v>
@@ -22323,10 +22320,10 @@
         <v>0</v>
       </c>
       <c r="N117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P117">
         <v>0</v>
@@ -22347,7 +22344,7 @@
         <v>1</v>
       </c>
       <c r="V117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W117">
         <v>1</v>
@@ -22356,13 +22353,13 @@
         <v>0</v>
       </c>
       <c r="Y117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z117">
         <v>0</v>
       </c>
       <c r="AA117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB117">
         <v>0</v>
@@ -22374,7 +22371,7 @@
         <v>1</v>
       </c>
       <c r="AE117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF117">
         <v>1</v>
@@ -22407,10 +22404,10 @@
         <v>0</v>
       </c>
       <c r="AP117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR117">
         <v>0</v>
@@ -22462,26 +22459,26 @@
       </c>
     </row>
     <row r="118" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A118" s="20" t="s">
-        <v>292</v>
+      <c r="A118" s="13" t="s">
+        <v>271</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>68</v>
+        <v>258</v>
       </c>
       <c r="C118" s="11" t="s">
         <v>93</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>293</v>
+        <v>55</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F118" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G118" s="11" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -22490,28 +22487,28 @@
         <v>1</v>
       </c>
       <c r="J118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O118">
         <v>1</v>
       </c>
       <c r="P118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R118">
         <v>0</v>
@@ -22520,7 +22517,7 @@
         <v>0</v>
       </c>
       <c r="T118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U118">
         <v>1</v>
@@ -22529,10 +22526,10 @@
         <v>0</v>
       </c>
       <c r="W118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y118">
         <v>1</v>
@@ -22553,7 +22550,7 @@
         <v>1</v>
       </c>
       <c r="AE118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF118">
         <v>1</v>
@@ -22565,25 +22562,25 @@
         <v>1</v>
       </c>
       <c r="AI118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ118">
         <v>0</v>
       </c>
       <c r="AK118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL118">
         <v>0</v>
       </c>
       <c r="AM118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN118">
         <v>1</v>
       </c>
       <c r="AO118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP118">
         <v>1</v>
@@ -22592,7 +22589,7 @@
         <v>1</v>
       </c>
       <c r="AR118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS118">
         <v>1</v>
@@ -22604,7 +22601,7 @@
         <v>0</v>
       </c>
       <c r="AV118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW118">
         <v>1</v>
@@ -22613,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="AY118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA118">
         <v>1</v>
@@ -22642,7 +22639,7 @@
     </row>
     <row r="119" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A119" s="20" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B119" s="12" t="s">
         <v>68</v>
@@ -22651,7 +22648,7 @@
         <v>93</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E119" s="11" t="s">
         <v>99</v>
@@ -22726,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="AC119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD119">
         <v>1</v>
@@ -22747,13 +22744,13 @@
         <v>1</v>
       </c>
       <c r="AJ119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK119">
         <v>1</v>
       </c>
       <c r="AL119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM119">
         <v>1</v>
@@ -22774,7 +22771,7 @@
         <v>1</v>
       </c>
       <c r="AS119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT119">
         <v>0</v>
@@ -22783,7 +22780,7 @@
         <v>0</v>
       </c>
       <c r="AV119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW119">
         <v>1</v>
@@ -22821,7 +22818,7 @@
     </row>
     <row r="120" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A120" s="20" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B120" s="12" t="s">
         <v>68</v>
@@ -22830,7 +22827,7 @@
         <v>93</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E120" s="11" t="s">
         <v>99</v>
@@ -22881,7 +22878,7 @@
         <v>1</v>
       </c>
       <c r="U120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V120">
         <v>0</v>
@@ -22905,7 +22902,7 @@
         <v>0</v>
       </c>
       <c r="AC120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD120">
         <v>1</v>
@@ -22929,7 +22926,7 @@
         <v>1</v>
       </c>
       <c r="AK120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL120">
         <v>1</v>
@@ -22965,7 +22962,7 @@
         <v>1</v>
       </c>
       <c r="AW120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX120">
         <v>0</v>
@@ -23000,7 +22997,7 @@
     </row>
     <row r="121" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A121" s="20" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B121" s="12" t="s">
         <v>68</v>
@@ -23009,7 +23006,7 @@
         <v>93</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E121" s="11" t="s">
         <v>99</v>
@@ -23048,19 +23045,19 @@
         <v>1</v>
       </c>
       <c r="Q121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R121">
         <v>0</v>
       </c>
       <c r="S121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T121">
         <v>1</v>
       </c>
       <c r="U121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V121">
         <v>0</v>
@@ -23090,7 +23087,7 @@
         <v>1</v>
       </c>
       <c r="AE121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF121">
         <v>1</v>
@@ -23108,13 +23105,13 @@
         <v>1</v>
       </c>
       <c r="AK121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL121">
         <v>1</v>
       </c>
       <c r="AM121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN121">
         <v>1</v>
@@ -23126,10 +23123,10 @@
         <v>1</v>
       </c>
       <c r="AQ121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS121">
         <v>0</v>
@@ -23138,13 +23135,13 @@
         <v>0</v>
       </c>
       <c r="AU121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV121">
         <v>1</v>
       </c>
       <c r="AW121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX121">
         <v>0</v>
@@ -23156,7 +23153,7 @@
         <v>1</v>
       </c>
       <c r="BA121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB121">
         <v>0</v>
@@ -23179,7 +23176,7 @@
     </row>
     <row r="122" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A122" s="20" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B122" s="12" t="s">
         <v>68</v>
@@ -23188,7 +23185,7 @@
         <v>93</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E122" s="11" t="s">
         <v>99</v>
@@ -23245,7 +23242,7 @@
         <v>0</v>
       </c>
       <c r="W122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X122">
         <v>1</v>
@@ -23263,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="AC122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD122">
         <v>1</v>
@@ -23293,7 +23290,7 @@
         <v>1</v>
       </c>
       <c r="AM122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN122">
         <v>1</v>
@@ -23305,10 +23302,10 @@
         <v>1</v>
       </c>
       <c r="AQ122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS122">
         <v>0</v>
@@ -23335,7 +23332,7 @@
         <v>1</v>
       </c>
       <c r="BA122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB122">
         <v>0</v>
@@ -23357,26 +23354,26 @@
       </c>
     </row>
     <row r="123" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A123" s="9" t="s">
-        <v>278</v>
+      <c r="A123" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>63</v>
+        <v>287</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F123" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>151</v>
+        <v>47</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -23394,7 +23391,7 @@
         <v>1</v>
       </c>
       <c r="M123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N123">
         <v>1</v>
@@ -23412,10 +23409,10 @@
         <v>0</v>
       </c>
       <c r="S123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U123">
         <v>1</v>
@@ -23433,7 +23430,7 @@
         <v>1</v>
       </c>
       <c r="Z123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA123">
         <v>0</v>
@@ -23442,61 +23439,61 @@
         <v>0</v>
       </c>
       <c r="AC123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD123">
         <v>1</v>
       </c>
       <c r="AE123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF123">
         <v>1</v>
       </c>
       <c r="AG123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM123">
-        <v>0</v>
-      </c>
-      <c r="AN123" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AN123">
+        <v>1</v>
       </c>
       <c r="AO123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ123">
         <v>1</v>
       </c>
       <c r="AR123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT123">
         <v>0</v>
       </c>
       <c r="AU123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV123">
         <v>1</v>
@@ -23505,39 +23502,39 @@
         <v>1</v>
       </c>
       <c r="AX123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB123">
         <v>0</v>
       </c>
       <c r="BC123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD123">
         <v>0</v>
       </c>
-      <c r="BE123">
-        <v>0</v>
-      </c>
-      <c r="BF123">
-        <v>1</v>
-      </c>
-      <c r="BG123">
+      <c r="BE123" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF123" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG123" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B124" s="12" t="s">
         <v>79</v>
@@ -23555,7 +23552,7 @@
         <v>45</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -23564,13 +23561,13 @@
         <v>1</v>
       </c>
       <c r="J124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M124">
         <v>0</v>
@@ -23594,7 +23591,7 @@
         <v>0</v>
       </c>
       <c r="T124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U124">
         <v>1</v>
@@ -23612,7 +23609,7 @@
         <v>1</v>
       </c>
       <c r="Z124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA124">
         <v>0</v>
@@ -23621,13 +23618,13 @@
         <v>0</v>
       </c>
       <c r="AC124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD124">
         <v>1</v>
       </c>
       <c r="AE124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF124">
         <v>1</v>
@@ -23678,7 +23675,7 @@
         <v>0</v>
       </c>
       <c r="AV124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW124">
         <v>1</v>
@@ -23690,10 +23687,10 @@
         <v>1</v>
       </c>
       <c r="AZ124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB124">
         <v>0</v>
@@ -23716,7 +23713,7 @@
     </row>
     <row r="125" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
-        <v>37</v>
+        <v>274</v>
       </c>
       <c r="B125" s="12" t="s">
         <v>79</v>
@@ -23734,22 +23731,22 @@
         <v>45</v>
       </c>
       <c r="G125" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125">
         <v>1</v>
       </c>
       <c r="J125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K125">
         <v>0</v>
       </c>
       <c r="L125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M125">
         <v>0</v>
@@ -23761,7 +23758,7 @@
         <v>1</v>
       </c>
       <c r="P125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q125">
         <v>1</v>
@@ -23773,10 +23770,10 @@
         <v>0</v>
       </c>
       <c r="T125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V125">
         <v>0</v>
@@ -23785,7 +23782,7 @@
         <v>1</v>
       </c>
       <c r="X125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y125">
         <v>1</v>
@@ -23800,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="AC125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD125">
         <v>1</v>
@@ -23863,13 +23860,13 @@
         <v>1</v>
       </c>
       <c r="AX125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY125">
         <v>1</v>
       </c>
       <c r="AZ125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA125">
         <v>1</v>
@@ -23878,7 +23875,7 @@
         <v>0</v>
       </c>
       <c r="BC125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD125">
         <v>0</v>
@@ -23894,53 +23891,53 @@
       </c>
     </row>
     <row r="126" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A126" s="18" t="s">
-        <v>175</v>
+      <c r="A126" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F126" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126">
         <v>1</v>
       </c>
       <c r="J126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K126">
         <v>0</v>
       </c>
       <c r="L126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M126">
         <v>0</v>
       </c>
       <c r="N126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q126">
         <v>1</v>
@@ -23949,16 +23946,16 @@
         <v>0</v>
       </c>
       <c r="S126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T126">
         <v>0</v>
       </c>
       <c r="U126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W126">
         <v>1</v>
@@ -23979,7 +23976,7 @@
         <v>0</v>
       </c>
       <c r="AC126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD126">
         <v>1</v>
@@ -23991,10 +23988,10 @@
         <v>1</v>
       </c>
       <c r="AG126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI126">
         <v>0</v>
@@ -24011,17 +24008,17 @@
       <c r="AM126">
         <v>0</v>
       </c>
-      <c r="AN126">
-        <v>1</v>
+      <c r="AN126" t="s">
+        <v>0</v>
       </c>
       <c r="AO126">
         <v>0</v>
       </c>
       <c r="AP126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR126">
         <v>0</v>
@@ -24045,7 +24042,7 @@
         <v>0</v>
       </c>
       <c r="AY126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ126">
         <v>0</v>
@@ -24062,19 +24059,19 @@
       <c r="BD126">
         <v>0</v>
       </c>
-      <c r="BE126" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF126" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG126" t="s">
+      <c r="BE126">
+        <v>0</v>
+      </c>
+      <c r="BF126">
+        <v>1</v>
+      </c>
+      <c r="BG126">
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A127" s="18" t="s">
-        <v>116</v>
+        <v>174</v>
       </c>
       <c r="B127" s="12" t="s">
         <v>68</v>
@@ -24092,7 +24089,7 @@
         <v>46</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -24113,7 +24110,7 @@
         <v>0</v>
       </c>
       <c r="N127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O127">
         <v>0</v>
@@ -24128,16 +24125,16 @@
         <v>0</v>
       </c>
       <c r="S127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T127">
         <v>0</v>
       </c>
       <c r="U127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W127">
         <v>1</v>
@@ -24158,13 +24155,13 @@
         <v>0</v>
       </c>
       <c r="AC127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD127">
         <v>1</v>
       </c>
       <c r="AE127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF127">
         <v>1</v>
@@ -24197,7 +24194,7 @@
         <v>0</v>
       </c>
       <c r="AP127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ127">
         <v>0</v>
@@ -24215,7 +24212,7 @@
         <v>0</v>
       </c>
       <c r="AV127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW127">
         <v>1</v>
@@ -24224,13 +24221,13 @@
         <v>0</v>
       </c>
       <c r="AY127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ127">
         <v>0</v>
       </c>
       <c r="BA127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB127">
         <v>0</v>
@@ -24239,7 +24236,7 @@
         <v>0</v>
       </c>
       <c r="BD127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE127" t="s">
         <v>0</v>
@@ -24253,13 +24250,13 @@
     </row>
     <row r="128" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A128" s="18" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D128" s="11" t="s">
         <v>59</v>
@@ -24271,7 +24268,7 @@
         <v>46</v>
       </c>
       <c r="G128" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -24298,7 +24295,7 @@
         <v>0</v>
       </c>
       <c r="P128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -24313,7 +24310,7 @@
         <v>0</v>
       </c>
       <c r="U128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V128">
         <v>0</v>
@@ -24337,13 +24334,13 @@
         <v>0</v>
       </c>
       <c r="AC128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD128">
         <v>1</v>
       </c>
       <c r="AE128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF128">
         <v>1</v>
@@ -24358,7 +24355,7 @@
         <v>0</v>
       </c>
       <c r="AJ128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK128">
         <v>0</v>
@@ -24376,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="AP128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ128">
         <v>0</v>
@@ -24394,7 +24391,7 @@
         <v>0</v>
       </c>
       <c r="AV128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW128">
         <v>1</v>
@@ -24418,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="BD128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE128" t="s">
         <v>0</v>
@@ -24432,7 +24429,7 @@
     </row>
     <row r="129" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A129" s="18" t="s">
-        <v>173</v>
+        <v>95</v>
       </c>
       <c r="B129" s="12" t="s">
         <v>79</v>
@@ -24450,7 +24447,7 @@
         <v>46</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -24477,7 +24474,7 @@
         <v>0</v>
       </c>
       <c r="P129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q129">
         <v>1</v>
@@ -24492,7 +24489,7 @@
         <v>0</v>
       </c>
       <c r="U129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V129">
         <v>0</v>
@@ -24516,7 +24513,7 @@
         <v>0</v>
       </c>
       <c r="AC129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD129">
         <v>1</v>
@@ -24561,7 +24558,7 @@
         <v>0</v>
       </c>
       <c r="AR129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS129">
         <v>1</v>
@@ -24573,13 +24570,13 @@
         <v>0</v>
       </c>
       <c r="AV129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW129">
         <v>1</v>
       </c>
       <c r="AX129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY129">
         <v>1</v>
@@ -24588,7 +24585,7 @@
         <v>0</v>
       </c>
       <c r="BA129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB129">
         <v>0</v>
@@ -24611,10 +24608,10 @@
     </row>
     <row r="130" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A130" s="18" t="s">
-        <v>232</v>
+        <v>172</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C130" s="11" t="s">
         <v>94</v>
@@ -24629,7 +24626,7 @@
         <v>46</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -24638,7 +24635,7 @@
         <v>1</v>
       </c>
       <c r="J130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K130">
         <v>0</v>
@@ -24656,7 +24653,7 @@
         <v>0</v>
       </c>
       <c r="P130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q130">
         <v>1</v>
@@ -24665,7 +24662,7 @@
         <v>0</v>
       </c>
       <c r="S130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T130">
         <v>0</v>
@@ -24716,7 +24713,7 @@
         <v>0</v>
       </c>
       <c r="AJ130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK130">
         <v>0</v>
@@ -24740,7 +24737,7 @@
         <v>0</v>
       </c>
       <c r="AR130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS130">
         <v>1</v>
@@ -24758,7 +24755,7 @@
         <v>1</v>
       </c>
       <c r="AX130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY130">
         <v>1</v>
@@ -24790,10 +24787,10 @@
     </row>
     <row r="131" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A131" s="18" t="s">
-        <v>174</v>
+        <v>230</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C131" s="11" t="s">
         <v>94</v>
@@ -24808,7 +24805,7 @@
         <v>46</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -24835,7 +24832,7 @@
         <v>0</v>
       </c>
       <c r="P131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q131">
         <v>1</v>
@@ -24844,10 +24841,10 @@
         <v>0</v>
       </c>
       <c r="S131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U131">
         <v>0</v>
@@ -24874,7 +24871,7 @@
         <v>0</v>
       </c>
       <c r="AC131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD131">
         <v>1</v>
@@ -24946,7 +24943,7 @@
         <v>0</v>
       </c>
       <c r="BA131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB131">
         <v>0</v>
@@ -24968,35 +24965,35 @@
       </c>
     </row>
     <row r="132" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A132" s="6" t="s">
-        <v>176</v>
+      <c r="A132" s="18" t="s">
+        <v>173</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F132" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K132">
         <v>0</v>
@@ -25008,13 +25005,13 @@
         <v>0</v>
       </c>
       <c r="N132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q132">
         <v>1</v>
@@ -25029,13 +25026,13 @@
         <v>1</v>
       </c>
       <c r="U132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V132">
         <v>0</v>
       </c>
       <c r="W132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X132">
         <v>0</v>
@@ -25047,7 +25044,7 @@
         <v>0</v>
       </c>
       <c r="AA132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB132">
         <v>0</v>
@@ -25059,16 +25056,16 @@
         <v>1</v>
       </c>
       <c r="AE132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF132">
         <v>1</v>
       </c>
       <c r="AG132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI132">
         <v>0</v>
@@ -25085,8 +25082,8 @@
       <c r="AM132">
         <v>0</v>
       </c>
-      <c r="AN132" t="s">
-        <v>0</v>
+      <c r="AN132">
+        <v>1</v>
       </c>
       <c r="AO132">
         <v>0</v>
@@ -25095,7 +25092,7 @@
         <v>1</v>
       </c>
       <c r="AQ132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR132">
         <v>0</v>
@@ -25128,27 +25125,27 @@
         <v>0</v>
       </c>
       <c r="BB132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD132">
         <v>0</v>
       </c>
-      <c r="BE132">
-        <v>0</v>
-      </c>
-      <c r="BF132">
-        <v>1</v>
-      </c>
-      <c r="BG132">
-        <v>1</v>
+      <c r="BE132" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF132" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG132" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="B133" s="12" t="s">
         <v>68</v>
@@ -25166,7 +25163,7 @@
         <v>45</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -25190,7 +25187,7 @@
         <v>0</v>
       </c>
       <c r="O133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P133">
         <v>0</v>
@@ -25208,13 +25205,13 @@
         <v>1</v>
       </c>
       <c r="U133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V133">
         <v>0</v>
       </c>
       <c r="W133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X133">
         <v>0</v>
@@ -25226,25 +25223,25 @@
         <v>0</v>
       </c>
       <c r="AA133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB133">
         <v>0</v>
       </c>
       <c r="AC133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD133">
         <v>1</v>
       </c>
       <c r="AE133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF133">
-        <v>0</v>
-      </c>
-      <c r="AG133" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AG133">
+        <v>1</v>
       </c>
       <c r="AH133">
         <v>0</v>
@@ -25274,7 +25271,7 @@
         <v>1</v>
       </c>
       <c r="AQ133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR133">
         <v>0</v>
@@ -25289,7 +25286,7 @@
         <v>0</v>
       </c>
       <c r="AV133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW133">
         <v>1</v>
@@ -25304,30 +25301,30 @@
         <v>0</v>
       </c>
       <c r="BA133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD133">
         <v>0</v>
       </c>
-      <c r="BE133" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF133" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG133" t="s">
-        <v>0</v>
+      <c r="BE133">
+        <v>0</v>
+      </c>
+      <c r="BF133">
+        <v>1</v>
+      </c>
+      <c r="BG133">
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B134" s="12" t="s">
         <v>68</v>
@@ -25345,7 +25342,7 @@
         <v>45</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -25384,13 +25381,13 @@
         <v>0</v>
       </c>
       <c r="T134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W134">
         <v>1</v>
@@ -25405,7 +25402,7 @@
         <v>0</v>
       </c>
       <c r="AA134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB134">
         <v>0</v>
@@ -25417,13 +25414,13 @@
         <v>1</v>
       </c>
       <c r="AE134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF134">
-        <v>1</v>
-      </c>
-      <c r="AG134">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AG134" t="s">
+        <v>0</v>
       </c>
       <c r="AH134">
         <v>0</v>
@@ -25483,30 +25480,30 @@
         <v>0</v>
       </c>
       <c r="BA134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB134">
         <v>0</v>
       </c>
       <c r="BC134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD134">
         <v>0</v>
       </c>
-      <c r="BE134">
-        <v>0</v>
-      </c>
-      <c r="BF134">
-        <v>1</v>
-      </c>
-      <c r="BG134">
+      <c r="BE134" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF134" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG134" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B135" s="12" t="s">
         <v>68</v>
@@ -25524,7 +25521,7 @@
         <v>45</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -25554,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R135">
         <v>0</v>
@@ -25563,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="T135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U135">
         <v>1</v>
       </c>
       <c r="V135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W135">
         <v>1</v>
@@ -25581,7 +25578,7 @@
         <v>1</v>
       </c>
       <c r="Z135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA135">
         <v>1</v>
@@ -25596,13 +25593,13 @@
         <v>1</v>
       </c>
       <c r="AE135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF135">
-        <v>0</v>
-      </c>
-      <c r="AG135" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AG135">
+        <v>1</v>
       </c>
       <c r="AH135">
         <v>0</v>
@@ -25638,7 +25635,7 @@
         <v>0</v>
       </c>
       <c r="AS135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT135">
         <v>0</v>
@@ -25647,45 +25644,45 @@
         <v>0</v>
       </c>
       <c r="AV135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX135">
         <v>0</v>
       </c>
       <c r="AY135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ135">
         <v>0</v>
       </c>
       <c r="BA135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB135">
         <v>0</v>
       </c>
       <c r="BC135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD135">
         <v>0</v>
       </c>
-      <c r="BE135" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF135" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG135" t="s">
+      <c r="BE135">
+        <v>0</v>
+      </c>
+      <c r="BF135">
+        <v>1</v>
+      </c>
+      <c r="BG135">
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
-        <v>177</v>
+        <v>29</v>
       </c>
       <c r="B136" s="12" t="s">
         <v>68</v>
@@ -25703,7 +25700,7 @@
         <v>45</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -25727,19 +25724,19 @@
         <v>0</v>
       </c>
       <c r="O136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R136">
         <v>0</v>
       </c>
       <c r="S136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T136">
         <v>1</v>
@@ -25763,13 +25760,13 @@
         <v>1</v>
       </c>
       <c r="AA136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB136">
         <v>0</v>
       </c>
       <c r="AC136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD136">
         <v>1</v>
@@ -25778,10 +25775,10 @@
         <v>0</v>
       </c>
       <c r="AF136">
-        <v>1</v>
-      </c>
-      <c r="AG136">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AG136" t="s">
+        <v>0</v>
       </c>
       <c r="AH136">
         <v>0</v>
@@ -25817,7 +25814,7 @@
         <v>0</v>
       </c>
       <c r="AS136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT136">
         <v>0</v>
@@ -25829,42 +25826,42 @@
         <v>1</v>
       </c>
       <c r="AW136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX136">
         <v>0</v>
       </c>
       <c r="AY136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ136">
         <v>0</v>
       </c>
       <c r="BA136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD136">
         <v>0</v>
       </c>
-      <c r="BE136">
-        <v>0</v>
-      </c>
-      <c r="BF136">
-        <v>1</v>
-      </c>
-      <c r="BG136">
+      <c r="BE136" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF136" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG136" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
-        <v>281</v>
+        <v>176</v>
       </c>
       <c r="B137" s="12" t="s">
         <v>68</v>
@@ -25882,7 +25879,7 @@
         <v>45</v>
       </c>
       <c r="G137" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -25909,7 +25906,7 @@
         <v>1</v>
       </c>
       <c r="P137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q137">
         <v>1</v>
@@ -25918,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T137">
         <v>1</v>
@@ -25939,7 +25936,7 @@
         <v>1</v>
       </c>
       <c r="Z137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA137">
         <v>0</v>
@@ -25948,13 +25945,13 @@
         <v>0</v>
       </c>
       <c r="AC137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD137">
         <v>1</v>
       </c>
       <c r="AE137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF137">
         <v>1</v>
@@ -25963,7 +25960,7 @@
         <v>1</v>
       </c>
       <c r="AH137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI137">
         <v>0</v>
@@ -25980,7 +25977,7 @@
       <c r="AM137">
         <v>0</v>
       </c>
-      <c r="AN137">
+      <c r="AN137" t="s">
         <v>0</v>
       </c>
       <c r="AO137">
@@ -26005,7 +26002,7 @@
         <v>0</v>
       </c>
       <c r="AV137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW137">
         <v>1</v>
@@ -26023,16 +26020,16 @@
         <v>0</v>
       </c>
       <c r="BB137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD137">
         <v>0</v>
       </c>
       <c r="BE137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF137">
         <v>1</v>
@@ -26043,7 +26040,7 @@
     </row>
     <row r="138" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
-        <v>191</v>
+        <v>276</v>
       </c>
       <c r="B138" s="12" t="s">
         <v>68</v>
@@ -26061,7 +26058,7 @@
         <v>45</v>
       </c>
       <c r="G138" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -26085,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="O138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P138">
         <v>0</v>
@@ -26100,7 +26097,7 @@
         <v>0</v>
       </c>
       <c r="T138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U138">
         <v>1</v>
@@ -26118,7 +26115,7 @@
         <v>1</v>
       </c>
       <c r="Z138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA138">
         <v>0</v>
@@ -26127,13 +26124,13 @@
         <v>0</v>
       </c>
       <c r="AC138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD138">
         <v>1</v>
       </c>
       <c r="AE138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF138">
         <v>1</v>
@@ -26142,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="AH138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI138">
         <v>0</v>
@@ -26159,7 +26156,7 @@
       <c r="AM138">
         <v>0</v>
       </c>
-      <c r="AN138" t="s">
+      <c r="AN138">
         <v>0</v>
       </c>
       <c r="AO138">
@@ -26184,13 +26181,13 @@
         <v>0</v>
       </c>
       <c r="AV138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW138">
         <v>1</v>
       </c>
       <c r="AX138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY138">
         <v>1</v>
@@ -26199,19 +26196,19 @@
         <v>0</v>
       </c>
       <c r="BA138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB138">
         <v>0</v>
       </c>
       <c r="BC138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD138">
         <v>0</v>
       </c>
       <c r="BE138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF138">
         <v>1</v>
@@ -26222,7 +26219,7 @@
     </row>
     <row r="139" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>280</v>
+        <v>190</v>
       </c>
       <c r="B139" s="12" t="s">
         <v>68</v>
@@ -26240,7 +26237,7 @@
         <v>45</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -26261,10 +26258,10 @@
         <v>0</v>
       </c>
       <c r="N139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P139">
         <v>0</v>
@@ -26276,7 +26273,7 @@
         <v>0</v>
       </c>
       <c r="S139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T139">
         <v>0</v>
@@ -26297,7 +26294,7 @@
         <v>1</v>
       </c>
       <c r="Z139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA139">
         <v>0</v>
@@ -26312,7 +26309,7 @@
         <v>1</v>
       </c>
       <c r="AE139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF139">
         <v>1</v>
@@ -26369,7 +26366,7 @@
         <v>1</v>
       </c>
       <c r="AX139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY139">
         <v>1</v>
@@ -26378,7 +26375,7 @@
         <v>0</v>
       </c>
       <c r="BA139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB139">
         <v>0</v>
@@ -26390,18 +26387,18 @@
         <v>0</v>
       </c>
       <c r="BE139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF139">
         <v>1</v>
       </c>
       <c r="BG139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A140" s="7" t="s">
-        <v>251</v>
+      <c r="A140" s="6" t="s">
+        <v>275</v>
       </c>
       <c r="B140" s="12" t="s">
         <v>68</v>
@@ -26410,16 +26407,16 @@
         <v>93</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F140" s="11" t="s">
         <v>45</v>
       </c>
       <c r="G140" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -26485,7 +26482,7 @@
         <v>0</v>
       </c>
       <c r="AC140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD140">
         <v>1</v>
@@ -26497,7 +26494,7 @@
         <v>1</v>
       </c>
       <c r="AG140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH140">
         <v>0</v>
@@ -26524,13 +26521,13 @@
         <v>0</v>
       </c>
       <c r="AP140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS140">
         <v>1</v>
@@ -26539,10 +26536,10 @@
         <v>0</v>
       </c>
       <c r="AU140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW140">
         <v>1</v>
@@ -26557,7 +26554,7 @@
         <v>0</v>
       </c>
       <c r="BA140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB140">
         <v>0</v>
@@ -26569,18 +26566,18 @@
         <v>0</v>
       </c>
       <c r="BE140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF140">
         <v>1</v>
       </c>
       <c r="BG140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B141" s="12" t="s">
         <v>68</v>
@@ -26598,7 +26595,7 @@
         <v>45</v>
       </c>
       <c r="G141" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -26625,7 +26622,7 @@
         <v>1</v>
       </c>
       <c r="P141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q141">
         <v>1</v>
@@ -26634,10 +26631,10 @@
         <v>0</v>
       </c>
       <c r="S141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U141">
         <v>1</v>
@@ -26658,25 +26655,25 @@
         <v>0</v>
       </c>
       <c r="AA141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB141">
         <v>0</v>
       </c>
       <c r="AC141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD141">
         <v>1</v>
       </c>
       <c r="AE141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF141">
         <v>1</v>
       </c>
       <c r="AG141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH141">
         <v>0</v>
@@ -26703,10 +26700,10 @@
         <v>0</v>
       </c>
       <c r="AP141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR141">
         <v>1</v>
@@ -26718,16 +26715,16 @@
         <v>0</v>
       </c>
       <c r="AU141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW141">
         <v>1</v>
       </c>
       <c r="AX141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY141">
         <v>1</v>
@@ -26748,7 +26745,7 @@
         <v>0</v>
       </c>
       <c r="BE141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF141">
         <v>1</v>
@@ -26759,7 +26756,7 @@
     </row>
     <row r="142" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
-        <v>120</v>
+        <v>247</v>
       </c>
       <c r="B142" s="12" t="s">
         <v>68</v>
@@ -26777,7 +26774,7 @@
         <v>45</v>
       </c>
       <c r="G142" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -26807,13 +26804,13 @@
         <v>1</v>
       </c>
       <c r="Q142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R142">
         <v>0</v>
       </c>
       <c r="S142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T142">
         <v>1</v>
@@ -26825,7 +26822,7 @@
         <v>0</v>
       </c>
       <c r="W142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X142">
         <v>0</v>
@@ -26837,13 +26834,13 @@
         <v>0</v>
       </c>
       <c r="AA142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB142">
         <v>0</v>
       </c>
       <c r="AC142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD142">
         <v>1</v>
@@ -26885,7 +26882,7 @@
         <v>1</v>
       </c>
       <c r="AQ142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR142">
         <v>1</v>
@@ -26897,7 +26894,7 @@
         <v>0</v>
       </c>
       <c r="AU142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV142">
         <v>1</v>
@@ -26906,7 +26903,7 @@
         <v>1</v>
       </c>
       <c r="AX142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY142">
         <v>1</v>
@@ -26927,7 +26924,7 @@
         <v>0</v>
       </c>
       <c r="BE142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF142">
         <v>1</v>
@@ -26938,7 +26935,7 @@
     </row>
     <row r="143" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="B143" s="12" t="s">
         <v>68</v>
@@ -26956,7 +26953,7 @@
         <v>45</v>
       </c>
       <c r="G143" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -26983,7 +26980,7 @@
         <v>1</v>
       </c>
       <c r="P143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q143">
         <v>0</v>
@@ -27028,13 +27025,13 @@
         <v>1</v>
       </c>
       <c r="AE143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF143">
-        <v>0</v>
-      </c>
-      <c r="AG143" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AG143">
+        <v>1</v>
       </c>
       <c r="AH143">
         <v>0</v>
@@ -27061,13 +27058,13 @@
         <v>0</v>
       </c>
       <c r="AP143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS143">
         <v>1</v>
@@ -27088,7 +27085,7 @@
         <v>0</v>
       </c>
       <c r="AY143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ143">
         <v>0</v>
@@ -27105,19 +27102,19 @@
       <c r="BD143">
         <v>0</v>
       </c>
-      <c r="BE143" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF143" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG143" t="s">
+      <c r="BE143">
+        <v>0</v>
+      </c>
+      <c r="BF143">
+        <v>1</v>
+      </c>
+      <c r="BG143">
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="B144" s="12" t="s">
         <v>68</v>
@@ -27135,7 +27132,7 @@
         <v>45</v>
       </c>
       <c r="G144" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -27162,7 +27159,7 @@
         <v>1</v>
       </c>
       <c r="P144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q144">
         <v>0</v>
@@ -27171,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="S144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T144">
         <v>1</v>
@@ -27183,7 +27180,7 @@
         <v>0</v>
       </c>
       <c r="W144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X144">
         <v>0</v>
@@ -27207,7 +27204,7 @@
         <v>1</v>
       </c>
       <c r="AE144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF144">
         <v>0</v>
@@ -27240,13 +27237,13 @@
         <v>0</v>
       </c>
       <c r="AP144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ144">
         <v>0</v>
       </c>
       <c r="AR144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS144">
         <v>1</v>
@@ -27255,10 +27252,10 @@
         <v>0</v>
       </c>
       <c r="AU144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW144">
         <v>1</v>
@@ -27267,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="AY144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ144">
         <v>0</v>
@@ -27296,7 +27293,7 @@
     </row>
     <row r="145" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B145" s="12" t="s">
         <v>68</v>
@@ -27314,7 +27311,7 @@
         <v>45</v>
       </c>
       <c r="G145" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -27341,7 +27338,7 @@
         <v>1</v>
       </c>
       <c r="P145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q145">
         <v>0</v>
@@ -27362,7 +27359,7 @@
         <v>0</v>
       </c>
       <c r="W145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X145">
         <v>0</v>
@@ -27386,13 +27383,13 @@
         <v>1</v>
       </c>
       <c r="AE145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF145">
-        <v>1</v>
-      </c>
-      <c r="AG145">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AG145" t="s">
+        <v>0</v>
       </c>
       <c r="AH145">
         <v>0</v>
@@ -27419,16 +27416,16 @@
         <v>0</v>
       </c>
       <c r="AP145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT145">
         <v>0</v>
@@ -27437,7 +27434,7 @@
         <v>0</v>
       </c>
       <c r="AV145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW145">
         <v>1</v>
@@ -27446,7 +27443,7 @@
         <v>0</v>
       </c>
       <c r="AY145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ145">
         <v>0</v>
@@ -27463,19 +27460,19 @@
       <c r="BD145">
         <v>0</v>
       </c>
-      <c r="BE145">
-        <v>0</v>
-      </c>
-      <c r="BF145">
-        <v>1</v>
-      </c>
-      <c r="BG145">
+      <c r="BE145" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF145" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG145" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="B146" s="12" t="s">
         <v>68</v>
@@ -27493,7 +27490,7 @@
         <v>45</v>
       </c>
       <c r="G146" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -27520,10 +27517,10 @@
         <v>1</v>
       </c>
       <c r="P146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R146">
         <v>0</v>
@@ -27541,7 +27538,7 @@
         <v>0</v>
       </c>
       <c r="W146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X146">
         <v>0</v>
@@ -27553,7 +27550,7 @@
         <v>0</v>
       </c>
       <c r="AA146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB146">
         <v>0</v>
@@ -27565,7 +27562,7 @@
         <v>1</v>
       </c>
       <c r="AE146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF146">
         <v>1</v>
@@ -27598,16 +27595,16 @@
         <v>0</v>
       </c>
       <c r="AP146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR146">
         <v>0</v>
       </c>
       <c r="AS146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT146">
         <v>0</v>
@@ -27625,7 +27622,7 @@
         <v>0</v>
       </c>
       <c r="AY146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ146">
         <v>0</v>
@@ -27637,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="BC146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD146">
         <v>0</v>
@@ -27654,10 +27651,10 @@
     </row>
     <row r="147" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
-        <v>9</v>
+        <v>191</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C147" s="11" t="s">
         <v>93</v>
@@ -27672,7 +27669,7 @@
         <v>45</v>
       </c>
       <c r="G147" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -27699,19 +27696,19 @@
         <v>1</v>
       </c>
       <c r="P147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R147">
         <v>0</v>
       </c>
       <c r="S147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U147">
         <v>1</v>
@@ -27723,7 +27720,7 @@
         <v>1</v>
       </c>
       <c r="X147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y147">
         <v>1</v>
@@ -27747,10 +27744,10 @@
         <v>0</v>
       </c>
       <c r="AF147">
-        <v>0</v>
-      </c>
-      <c r="AG147" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AG147">
+        <v>1</v>
       </c>
       <c r="AH147">
         <v>0</v>
@@ -27801,7 +27798,7 @@
         <v>1</v>
       </c>
       <c r="AX147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY147">
         <v>1</v>
@@ -27821,37 +27818,37 @@
       <c r="BD147">
         <v>0</v>
       </c>
-      <c r="BE147" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF147" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG147" t="s">
+      <c r="BE147">
+        <v>0</v>
+      </c>
+      <c r="BF147">
+        <v>1</v>
+      </c>
+      <c r="BG147">
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A148" s="6" t="s">
-        <v>302</v>
+      <c r="A148" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>303</v>
+        <v>54</v>
       </c>
       <c r="E148" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F148" s="11" t="s">
         <v>45</v>
       </c>
       <c r="G148" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -27872,13 +27869,13 @@
         <v>0</v>
       </c>
       <c r="N148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O148">
         <v>1</v>
       </c>
       <c r="P148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q148">
         <v>0</v>
@@ -27902,19 +27899,19 @@
         <v>1</v>
       </c>
       <c r="X148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y148">
         <v>1</v>
       </c>
       <c r="Z148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA148">
         <v>1</v>
       </c>
       <c r="AB148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC148">
         <v>0</v>
@@ -27923,13 +27920,13 @@
         <v>1</v>
       </c>
       <c r="AE148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF148">
-        <v>1</v>
-      </c>
-      <c r="AG148">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AG148" t="s">
+        <v>0</v>
       </c>
       <c r="AH148">
         <v>0</v>
@@ -27959,13 +27956,13 @@
         <v>1</v>
       </c>
       <c r="AQ148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT148">
         <v>0</v>
@@ -27980,7 +27977,7 @@
         <v>1</v>
       </c>
       <c r="AX148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY148">
         <v>1</v>
@@ -28000,28 +27997,28 @@
       <c r="BD148">
         <v>0</v>
       </c>
-      <c r="BE148">
-        <v>0</v>
-      </c>
-      <c r="BF148">
-        <v>1</v>
-      </c>
-      <c r="BG148">
-        <v>1</v>
+      <c r="BE148" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF148" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG148" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A149" s="8" t="s">
-        <v>117</v>
+      <c r="A149" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>61</v>
+        <v>296</v>
       </c>
       <c r="E149" s="11" t="s">
         <v>100</v>
@@ -28030,7 +28027,7 @@
         <v>45</v>
       </c>
       <c r="G149" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -28051,7 +28048,7 @@
         <v>0</v>
       </c>
       <c r="N149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O149">
         <v>1</v>
@@ -28060,13 +28057,13 @@
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R149">
         <v>0</v>
       </c>
       <c r="S149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T149">
         <v>0</v>
@@ -28087,28 +28084,28 @@
         <v>1</v>
       </c>
       <c r="Z149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD149">
         <v>1</v>
       </c>
       <c r="AE149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF149">
         <v>1</v>
       </c>
       <c r="AG149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH149">
         <v>0</v>
@@ -28135,16 +28132,16 @@
         <v>0</v>
       </c>
       <c r="AP149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT149">
         <v>0</v>
@@ -28159,7 +28156,7 @@
         <v>1</v>
       </c>
       <c r="AX149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY149">
         <v>1</v>
@@ -28174,27 +28171,27 @@
         <v>0</v>
       </c>
       <c r="BC149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF149">
         <v>1</v>
       </c>
       <c r="BG149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="s">
-        <v>178</v>
+        <v>117</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C150" s="11" t="s">
         <v>94</v>
@@ -28209,7 +28206,7 @@
         <v>45</v>
       </c>
       <c r="G150" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -28230,13 +28227,13 @@
         <v>0</v>
       </c>
       <c r="N150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O150">
         <v>1</v>
       </c>
       <c r="P150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q150">
         <v>1</v>
@@ -28254,7 +28251,7 @@
         <v>1</v>
       </c>
       <c r="V150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W150">
         <v>1</v>
@@ -28263,13 +28260,13 @@
         <v>0</v>
       </c>
       <c r="Y150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB150">
         <v>0</v>
@@ -28287,7 +28284,7 @@
         <v>1</v>
       </c>
       <c r="AG150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH150">
         <v>0</v>
@@ -28317,7 +28314,7 @@
         <v>0</v>
       </c>
       <c r="AQ150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR150">
         <v>0</v>
@@ -28347,10 +28344,10 @@
         <v>0</v>
       </c>
       <c r="BA150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC150">
         <v>1</v>
@@ -28370,7 +28367,7 @@
     </row>
     <row r="151" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
-        <v>32</v>
+        <v>177</v>
       </c>
       <c r="B151" s="12" t="s">
         <v>80</v>
@@ -28388,7 +28385,7 @@
         <v>45</v>
       </c>
       <c r="G151" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -28409,10 +28406,10 @@
         <v>0</v>
       </c>
       <c r="N151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P151">
         <v>0</v>
@@ -28445,7 +28442,7 @@
         <v>0</v>
       </c>
       <c r="Z151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA151">
         <v>1</v>
@@ -28454,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="AC151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD151">
         <v>1</v>
@@ -28466,7 +28463,7 @@
         <v>1</v>
       </c>
       <c r="AG151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH151">
         <v>0</v>
@@ -28493,10 +28490,10 @@
         <v>0</v>
       </c>
       <c r="AP151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR151">
         <v>0</v>
@@ -28511,7 +28508,7 @@
         <v>0</v>
       </c>
       <c r="AV151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW151">
         <v>1</v>
@@ -28526,19 +28523,19 @@
         <v>0</v>
       </c>
       <c r="BA151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF151">
         <v>1</v>
@@ -28548,32 +28545,32 @@
       </c>
     </row>
     <row r="152" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A152" s="27" t="s">
-        <v>233</v>
+      <c r="A152" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E152" s="11" t="s">
         <v>100</v>
       </c>
       <c r="F152" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G152" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H152">
         <v>0</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152">
         <v>0</v>
@@ -28591,7 +28588,7 @@
         <v>1</v>
       </c>
       <c r="O152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P152">
         <v>0</v>
@@ -28612,7 +28609,7 @@
         <v>1</v>
       </c>
       <c r="V152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W152">
         <v>1</v>
@@ -28621,25 +28618,25 @@
         <v>0</v>
       </c>
       <c r="Y152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z152">
         <v>0</v>
       </c>
       <c r="AA152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB152">
         <v>0</v>
       </c>
       <c r="AC152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD152">
         <v>1</v>
       </c>
       <c r="AE152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF152">
         <v>1</v>
@@ -28648,10 +28645,10 @@
         <v>0</v>
       </c>
       <c r="AH152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ152">
         <v>0</v>
@@ -28665,17 +28662,17 @@
       <c r="AM152">
         <v>0</v>
       </c>
-      <c r="AN152">
-        <v>1</v>
+      <c r="AN152" t="s">
+        <v>0</v>
       </c>
       <c r="AO152">
         <v>0</v>
       </c>
       <c r="AP152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR152">
         <v>0</v>
@@ -28705,7 +28702,7 @@
         <v>0</v>
       </c>
       <c r="BA152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB152">
         <v>0</v>
@@ -28716,19 +28713,19 @@
       <c r="BD152">
         <v>0</v>
       </c>
-      <c r="BE152" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF152" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG152" t="s">
+      <c r="BE152">
+        <v>0</v>
+      </c>
+      <c r="BF152">
+        <v>1</v>
+      </c>
+      <c r="BG152">
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A153" s="27" t="s">
-        <v>106</v>
+        <v>231</v>
       </c>
       <c r="B153" s="12" t="s">
         <v>67</v>
@@ -28746,7 +28743,7 @@
         <v>46</v>
       </c>
       <c r="G153" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -28800,7 +28797,7 @@
         <v>0</v>
       </c>
       <c r="Y153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z153">
         <v>0</v>
@@ -28812,13 +28809,13 @@
         <v>0</v>
       </c>
       <c r="AC153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD153">
         <v>1</v>
       </c>
       <c r="AE153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF153">
         <v>1</v>
@@ -28830,7 +28827,7 @@
         <v>1</v>
       </c>
       <c r="AI153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ153">
         <v>0</v>
@@ -28854,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="AQ153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR153">
         <v>0</v>
@@ -28869,13 +28866,13 @@
         <v>0</v>
       </c>
       <c r="AV153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW153">
         <v>1</v>
       </c>
       <c r="AX153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY153">
         <v>1</v>
@@ -28907,7 +28904,7 @@
     </row>
     <row r="154" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A154" s="27" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="B154" s="12" t="s">
         <v>67</v>
@@ -28925,13 +28922,13 @@
         <v>46</v>
       </c>
       <c r="G154" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H154">
         <v>0</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154">
         <v>0</v>
@@ -28949,7 +28946,7 @@
         <v>1</v>
       </c>
       <c r="O154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P154">
         <v>0</v>
@@ -28979,7 +28976,7 @@
         <v>0</v>
       </c>
       <c r="Y154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z154">
         <v>0</v>
@@ -29030,7 +29027,7 @@
         <v>0</v>
       </c>
       <c r="AP154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ154">
         <v>0</v>
@@ -29048,13 +29045,13 @@
         <v>0</v>
       </c>
       <c r="AV154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW154">
         <v>1</v>
       </c>
       <c r="AX154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY154">
         <v>1</v>
@@ -29086,7 +29083,7 @@
     </row>
     <row r="155" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A155" s="27" t="s">
-        <v>193</v>
+        <v>33</v>
       </c>
       <c r="B155" s="12" t="s">
         <v>67</v>
@@ -29104,7 +29101,7 @@
         <v>46</v>
       </c>
       <c r="G155" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -29128,10 +29125,10 @@
         <v>1</v>
       </c>
       <c r="O155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q155">
         <v>1</v>
@@ -29149,7 +29146,7 @@
         <v>1</v>
       </c>
       <c r="V155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W155">
         <v>1</v>
@@ -29164,13 +29161,13 @@
         <v>0</v>
       </c>
       <c r="AA155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB155">
         <v>0</v>
       </c>
       <c r="AC155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD155">
         <v>1</v>
@@ -29191,7 +29188,7 @@
         <v>0</v>
       </c>
       <c r="AJ155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK155">
         <v>0</v>
@@ -29212,10 +29209,10 @@
         <v>1</v>
       </c>
       <c r="AQ155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS155">
         <v>1</v>
@@ -29242,7 +29239,7 @@
         <v>0</v>
       </c>
       <c r="BA155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB155">
         <v>0</v>
@@ -29265,7 +29262,7 @@
     </row>
     <row r="156" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A156" s="27" t="s">
-        <v>34</v>
+        <v>192</v>
       </c>
       <c r="B156" s="12" t="s">
         <v>67</v>
@@ -29283,7 +29280,7 @@
         <v>46</v>
       </c>
       <c r="G156" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -29310,7 +29307,7 @@
         <v>1</v>
       </c>
       <c r="P156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q156">
         <v>1</v>
@@ -29328,7 +29325,7 @@
         <v>1</v>
       </c>
       <c r="V156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W156">
         <v>1</v>
@@ -29337,7 +29334,7 @@
         <v>0</v>
       </c>
       <c r="Y156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z156">
         <v>0</v>
@@ -29349,7 +29346,7 @@
         <v>0</v>
       </c>
       <c r="AC156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD156">
         <v>1</v>
@@ -29361,7 +29358,7 @@
         <v>1</v>
       </c>
       <c r="AG156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH156">
         <v>1</v>
@@ -29370,7 +29367,7 @@
         <v>0</v>
       </c>
       <c r="AJ156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK156">
         <v>0</v>
@@ -29391,10 +29388,10 @@
         <v>1</v>
       </c>
       <c r="AQ156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS156">
         <v>1</v>
@@ -29444,7 +29441,7 @@
     </row>
     <row r="157" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A157" s="27" t="s">
-        <v>282</v>
+        <v>34</v>
       </c>
       <c r="B157" s="12" t="s">
         <v>67</v>
@@ -29462,19 +29459,19 @@
         <v>46</v>
       </c>
       <c r="G157" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H157">
         <v>0</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157">
         <v>0</v>
       </c>
       <c r="K157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L157">
         <v>0</v>
@@ -29489,7 +29486,7 @@
         <v>1</v>
       </c>
       <c r="P157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q157">
         <v>1</v>
@@ -29516,13 +29513,13 @@
         <v>0</v>
       </c>
       <c r="Y157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z157">
         <v>0</v>
       </c>
       <c r="AA157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB157">
         <v>0</v>
@@ -29540,7 +29537,7 @@
         <v>1</v>
       </c>
       <c r="AG157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH157">
         <v>1</v>
@@ -29549,7 +29546,7 @@
         <v>0</v>
       </c>
       <c r="AJ157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK157">
         <v>0</v>
@@ -29561,13 +29558,13 @@
         <v>0</v>
       </c>
       <c r="AN157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO157">
         <v>0</v>
       </c>
       <c r="AP157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ157">
         <v>0</v>
@@ -29585,7 +29582,7 @@
         <v>0</v>
       </c>
       <c r="AV157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW157">
         <v>1</v>
@@ -29603,27 +29600,27 @@
         <v>1</v>
       </c>
       <c r="BB157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD157">
         <v>0</v>
       </c>
-      <c r="BE157">
-        <v>1</v>
-      </c>
-      <c r="BF157">
-        <v>1</v>
-      </c>
-      <c r="BG157">
+      <c r="BE157" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF157" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG157" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A158" s="27" t="s">
-        <v>35</v>
+        <v>277</v>
       </c>
       <c r="B158" s="12" t="s">
         <v>67</v>
@@ -29641,7 +29638,7 @@
         <v>46</v>
       </c>
       <c r="G158" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -29653,7 +29650,7 @@
         <v>0</v>
       </c>
       <c r="K158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L158">
         <v>0</v>
@@ -29668,7 +29665,7 @@
         <v>1</v>
       </c>
       <c r="P158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q158">
         <v>1</v>
@@ -29740,13 +29737,13 @@
         <v>0</v>
       </c>
       <c r="AN158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO158">
         <v>0</v>
       </c>
       <c r="AP158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ158">
         <v>0</v>
@@ -29764,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="AV158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW158">
         <v>1</v>
@@ -29779,10 +29776,10 @@
         <v>0</v>
       </c>
       <c r="BA158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC158">
         <v>1</v>
@@ -29790,19 +29787,19 @@
       <c r="BD158">
         <v>0</v>
       </c>
-      <c r="BE158" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF158" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG158" t="s">
+      <c r="BE158">
+        <v>1</v>
+      </c>
+      <c r="BF158">
+        <v>1</v>
+      </c>
+      <c r="BG158">
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A159" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B159" s="12" t="s">
         <v>67</v>
@@ -29820,13 +29817,13 @@
         <v>46</v>
       </c>
       <c r="G159" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H159">
         <v>0</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159">
         <v>0</v>
@@ -29928,7 +29925,7 @@
         <v>1</v>
       </c>
       <c r="AQ159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR159">
         <v>0</v>
@@ -29943,7 +29940,7 @@
         <v>0</v>
       </c>
       <c r="AV159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW159">
         <v>1</v>
@@ -29964,7 +29961,7 @@
         <v>0</v>
       </c>
       <c r="BC159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD159">
         <v>0</v>
@@ -29980,44 +29977,44 @@
       </c>
     </row>
     <row r="160" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A160" s="20" t="s">
-        <v>285</v>
+      <c r="A160" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>153</v>
+        <v>62</v>
       </c>
       <c r="E160" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F160" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G160" s="11" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N160">
         <v>1</v>
@@ -30026,16 +30023,16 @@
         <v>1</v>
       </c>
       <c r="P160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R160">
         <v>0</v>
       </c>
       <c r="S160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T160">
         <v>0</v>
@@ -30047,10 +30044,10 @@
         <v>0</v>
       </c>
       <c r="W160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y160">
         <v>1</v>
@@ -30071,7 +30068,7 @@
         <v>1</v>
       </c>
       <c r="AE160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF160">
         <v>1</v>
@@ -30101,7 +30098,7 @@
         <v>1</v>
       </c>
       <c r="AO160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP160">
         <v>1</v>
@@ -30110,7 +30107,7 @@
         <v>1</v>
       </c>
       <c r="AR160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS160">
         <v>1</v>
@@ -30119,25 +30116,25 @@
         <v>0</v>
       </c>
       <c r="AU160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ160">
         <v>0</v>
       </c>
       <c r="BA160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB160">
         <v>0</v>
@@ -30160,7 +30157,7 @@
     </row>
     <row r="161" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A161" s="20" t="s">
-        <v>152</v>
+        <v>280</v>
       </c>
       <c r="B161" s="12" t="s">
         <v>76</v>
@@ -30169,7 +30166,7 @@
         <v>93</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E161" s="11" t="s">
         <v>99</v>
@@ -30217,7 +30214,7 @@
         <v>1</v>
       </c>
       <c r="T161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U161">
         <v>1</v>
@@ -30250,7 +30247,7 @@
         <v>1</v>
       </c>
       <c r="AE161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF161">
         <v>1</v>
@@ -30280,7 +30277,7 @@
         <v>1</v>
       </c>
       <c r="AO161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP161">
         <v>1</v>
@@ -30289,19 +30286,19 @@
         <v>1</v>
       </c>
       <c r="AR161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT161">
         <v>0</v>
       </c>
       <c r="AU161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW161">
         <v>0</v>
@@ -30310,7 +30307,7 @@
         <v>0</v>
       </c>
       <c r="AY161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ161">
         <v>0</v>
@@ -30339,7 +30336,7 @@
     </row>
     <row r="162" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A162" s="20" t="s">
-        <v>198</v>
+        <v>151</v>
       </c>
       <c r="B162" s="12" t="s">
         <v>76</v>
@@ -30348,7 +30345,7 @@
         <v>93</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E162" s="11" t="s">
         <v>99</v>
@@ -30372,7 +30369,7 @@
         <v>1</v>
       </c>
       <c r="L162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M162">
         <v>1</v>
@@ -30399,7 +30396,7 @@
         <v>1</v>
       </c>
       <c r="U162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V162">
         <v>0</v>
@@ -30408,7 +30405,7 @@
         <v>0</v>
       </c>
       <c r="X162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y162">
         <v>1</v>
@@ -30441,7 +30438,7 @@
         <v>1</v>
       </c>
       <c r="AI162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ162">
         <v>1</v>
@@ -30459,7 +30456,7 @@
         <v>1</v>
       </c>
       <c r="AO162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP162">
         <v>1</v>
@@ -30477,7 +30474,7 @@
         <v>0</v>
       </c>
       <c r="AU162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV162">
         <v>1</v>
@@ -30518,7 +30515,7 @@
     </row>
     <row r="163" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A163" s="20" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B163" s="12" t="s">
         <v>76</v>
@@ -30527,7 +30524,7 @@
         <v>93</v>
       </c>
       <c r="D163" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E163" s="11" t="s">
         <v>99</v>
@@ -30554,7 +30551,7 @@
         <v>0</v>
       </c>
       <c r="M163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N163">
         <v>1</v>
@@ -30572,19 +30569,19 @@
         <v>0</v>
       </c>
       <c r="S163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T163">
         <v>1</v>
       </c>
       <c r="U163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V163">
         <v>0</v>
       </c>
       <c r="W163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X163">
         <v>0</v>
@@ -30620,7 +30617,7 @@
         <v>1</v>
       </c>
       <c r="AI163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ163">
         <v>1</v>
@@ -30638,7 +30635,7 @@
         <v>1</v>
       </c>
       <c r="AO163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP163">
         <v>1</v>
@@ -30650,19 +30647,19 @@
         <v>0</v>
       </c>
       <c r="AS163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT163">
         <v>0</v>
       </c>
       <c r="AU163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV163">
         <v>1</v>
       </c>
       <c r="AW163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX163">
         <v>0</v>
@@ -30697,7 +30694,7 @@
     </row>
     <row r="164" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A164" s="20" t="s">
-        <v>284</v>
+        <v>198</v>
       </c>
       <c r="B164" s="12" t="s">
         <v>76</v>
@@ -30706,7 +30703,7 @@
         <v>93</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E164" s="11" t="s">
         <v>99</v>
@@ -30751,10 +30748,10 @@
         <v>0</v>
       </c>
       <c r="S164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U164">
         <v>1</v>
@@ -30763,7 +30760,7 @@
         <v>0</v>
       </c>
       <c r="W164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X164">
         <v>0</v>
@@ -30799,13 +30796,13 @@
         <v>1</v>
       </c>
       <c r="AI164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ164">
         <v>1</v>
       </c>
       <c r="AK164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL164">
         <v>0</v>
@@ -30817,7 +30814,7 @@
         <v>1</v>
       </c>
       <c r="AO164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP164">
         <v>1</v>
@@ -30826,16 +30823,16 @@
         <v>1</v>
       </c>
       <c r="AR164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT164">
         <v>0</v>
       </c>
       <c r="AU164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV164">
         <v>1</v>
@@ -30847,10 +30844,10 @@
         <v>0</v>
       </c>
       <c r="AY164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA164">
         <v>1</v>
@@ -30876,16 +30873,16 @@
     </row>
     <row r="165" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A165" s="20" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B165" s="12" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C165" s="11" t="s">
         <v>93</v>
       </c>
       <c r="D165" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E165" s="11" t="s">
         <v>99</v>
@@ -30912,7 +30909,7 @@
         <v>0</v>
       </c>
       <c r="M165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N165">
         <v>1</v>
@@ -30933,7 +30930,7 @@
         <v>1</v>
       </c>
       <c r="T165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U165">
         <v>1</v>
@@ -30945,7 +30942,7 @@
         <v>0</v>
       </c>
       <c r="X165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y165">
         <v>1</v>
@@ -30984,7 +30981,7 @@
         <v>1</v>
       </c>
       <c r="AK165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL165">
         <v>0</v>
@@ -30999,7 +30996,7 @@
         <v>1</v>
       </c>
       <c r="AP165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ165">
         <v>1</v>
@@ -31008,7 +31005,7 @@
         <v>1</v>
       </c>
       <c r="AS165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT165">
         <v>0</v>
@@ -31055,16 +31052,16 @@
     </row>
     <row r="166" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A166" s="20" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="B166" s="12" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C166" s="11" t="s">
         <v>93</v>
       </c>
       <c r="D166" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E166" s="11" t="s">
         <v>99</v>
@@ -31088,7 +31085,7 @@
         <v>1</v>
       </c>
       <c r="L166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M166">
         <v>1</v>
@@ -31178,7 +31175,7 @@
         <v>1</v>
       </c>
       <c r="AP166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ166">
         <v>1</v>
@@ -31187,7 +31184,7 @@
         <v>1</v>
       </c>
       <c r="AS166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT166">
         <v>0</v>
@@ -31205,7 +31202,7 @@
         <v>0</v>
       </c>
       <c r="AY166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ166">
         <v>1</v>
@@ -31234,7 +31231,7 @@
     </row>
     <row r="167" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A167" s="20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B167" s="12" t="s">
         <v>76</v>
@@ -31243,7 +31240,7 @@
         <v>93</v>
       </c>
       <c r="D167" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E167" s="11" t="s">
         <v>99</v>
@@ -31267,7 +31264,7 @@
         <v>1</v>
       </c>
       <c r="L167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M167">
         <v>1</v>
@@ -31282,7 +31279,7 @@
         <v>1</v>
       </c>
       <c r="Q167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R167">
         <v>0</v>
@@ -31300,7 +31297,7 @@
         <v>0</v>
       </c>
       <c r="W167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X167">
         <v>1</v>
@@ -31336,7 +31333,7 @@
         <v>1</v>
       </c>
       <c r="AI167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ167">
         <v>1</v>
@@ -31354,7 +31351,7 @@
         <v>1</v>
       </c>
       <c r="AO167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP167">
         <v>1</v>
@@ -31363,10 +31360,10 @@
         <v>1</v>
       </c>
       <c r="AR167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT167">
         <v>0</v>
@@ -31412,26 +31409,26 @@
       </c>
     </row>
     <row r="168" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A168" s="26" t="s">
-        <v>12</v>
+      <c r="A168" s="20" t="s">
+        <v>281</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C168" s="11" t="s">
         <v>93</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>51</v>
+        <v>152</v>
       </c>
       <c r="E168" s="11" t="s">
         <v>99</v>
       </c>
       <c r="F168" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G168" s="11" t="s">
-        <v>151</v>
+        <v>47</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -31446,10 +31443,10 @@
         <v>1</v>
       </c>
       <c r="L168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N168">
         <v>1</v>
@@ -31473,16 +31470,16 @@
         <v>1</v>
       </c>
       <c r="U168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V168">
         <v>0</v>
       </c>
       <c r="W168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y168">
         <v>1</v>
@@ -31491,7 +31488,7 @@
         <v>0</v>
       </c>
       <c r="AA168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB168">
         <v>0</v>
@@ -31503,7 +31500,7 @@
         <v>1</v>
       </c>
       <c r="AE168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF168">
         <v>1</v>
@@ -31533,19 +31530,19 @@
         <v>1</v>
       </c>
       <c r="AO168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP168">
         <v>1</v>
       </c>
       <c r="AQ168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR168">
         <v>0</v>
       </c>
       <c r="AS168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT168">
         <v>0</v>
@@ -31554,7 +31551,7 @@
         <v>1</v>
       </c>
       <c r="AV168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW168">
         <v>1</v>
@@ -31563,10 +31560,10 @@
         <v>0</v>
       </c>
       <c r="AY168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA168">
         <v>1</v>
@@ -31590,9 +31587,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A169" s="26" t="s">
-        <v>258</v>
+        <v>12</v>
       </c>
       <c r="B169" s="12" t="s">
         <v>68</v>
@@ -31610,37 +31607,37 @@
         <v>46</v>
       </c>
       <c r="G169" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M169">
         <v>0</v>
       </c>
       <c r="N169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O169">
         <v>1</v>
       </c>
       <c r="P169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R169">
         <v>0</v>
@@ -31649,10 +31646,10 @@
         <v>1</v>
       </c>
       <c r="T169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V169">
         <v>0</v>
@@ -31670,7 +31667,7 @@
         <v>0</v>
       </c>
       <c r="AA169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB169">
         <v>0</v>
@@ -31682,22 +31679,22 @@
         <v>1</v>
       </c>
       <c r="AE169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF169">
         <v>1</v>
       </c>
       <c r="AG169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI169">
         <v>0</v>
       </c>
       <c r="AJ169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK169">
         <v>0</v>
@@ -31708,14 +31705,14 @@
       <c r="AM169">
         <v>0</v>
       </c>
-      <c r="AN169" t="s">
-        <v>0</v>
+      <c r="AN169">
+        <v>1</v>
       </c>
       <c r="AO169">
         <v>1</v>
       </c>
       <c r="AP169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ169">
         <v>0</v>
@@ -31724,7 +31721,7 @@
         <v>0</v>
       </c>
       <c r="AS169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT169">
         <v>0</v>
@@ -31742,10 +31739,10 @@
         <v>0</v>
       </c>
       <c r="AY169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA169">
         <v>1</v>
@@ -31759,19 +31756,19 @@
       <c r="BD169">
         <v>0</v>
       </c>
-      <c r="BE169">
-        <v>0</v>
-      </c>
-      <c r="BF169">
-        <v>1</v>
-      </c>
-      <c r="BG169">
+      <c r="BE169" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF169" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG169" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A170" s="9" t="s">
-        <v>38</v>
+    <row r="170" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="26" t="s">
+        <v>253</v>
       </c>
       <c r="B170" s="12" t="s">
         <v>68</v>
@@ -31780,58 +31777,58 @@
         <v>93</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E170" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F170" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G170" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O170">
         <v>1</v>
       </c>
       <c r="P170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R170">
         <v>0</v>
       </c>
       <c r="S170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T170">
         <v>0</v>
       </c>
       <c r="U170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V170">
         <v>0</v>
@@ -31840,7 +31837,7 @@
         <v>0</v>
       </c>
       <c r="X170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y170">
         <v>1</v>
@@ -31855,7 +31852,7 @@
         <v>0</v>
       </c>
       <c r="AC170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD170">
         <v>1</v>
@@ -31891,7 +31888,7 @@
         <v>0</v>
       </c>
       <c r="AO170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP170">
         <v>0</v>
@@ -31909,13 +31906,13 @@
         <v>0</v>
       </c>
       <c r="AU170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV170">
         <v>0</v>
       </c>
       <c r="AW170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX170">
         <v>0</v>
@@ -31924,7 +31921,7 @@
         <v>1</v>
       </c>
       <c r="AZ170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA170">
         <v>1</v>
@@ -31950,13 +31947,13 @@
     </row>
     <row r="171" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="s">
-        <v>205</v>
+        <v>38</v>
       </c>
       <c r="B171" s="12" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C171" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D171" s="11" t="s">
         <v>64</v>
@@ -31968,7 +31965,7 @@
         <v>45</v>
       </c>
       <c r="G171" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H171">
         <v>1</v>
@@ -32010,13 +32007,13 @@
         <v>0</v>
       </c>
       <c r="U171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X171">
         <v>1</v>
@@ -32028,15 +32025,15 @@
         <v>0</v>
       </c>
       <c r="AA171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB171">
         <v>0</v>
       </c>
-      <c r="AC171" s="24">
-        <v>1</v>
-      </c>
-      <c r="AD171" s="24">
+      <c r="AC171">
+        <v>1</v>
+      </c>
+      <c r="AD171">
         <v>1</v>
       </c>
       <c r="AE171">
@@ -32049,25 +32046,25 @@
         <v>1</v>
       </c>
       <c r="AH171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI171">
         <v>0</v>
       </c>
       <c r="AJ171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK171">
         <v>0</v>
       </c>
       <c r="AL171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM171">
         <v>0</v>
       </c>
-      <c r="AN171">
-        <v>1</v>
+      <c r="AN171" t="s">
+        <v>0</v>
       </c>
       <c r="AO171">
         <v>0</v>
@@ -32117,25 +32114,25 @@
       <c r="BD171">
         <v>0</v>
       </c>
-      <c r="BE171" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF171" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG171" t="s">
+      <c r="BE171">
+        <v>0</v>
+      </c>
+      <c r="BF171">
+        <v>1</v>
+      </c>
+      <c r="BG171">
         <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="B172" s="12" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D172" s="11" t="s">
         <v>64</v>
@@ -32147,7 +32144,7 @@
         <v>45</v>
       </c>
       <c r="G172" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H172">
         <v>1</v>
@@ -32162,7 +32159,7 @@
         <v>1</v>
       </c>
       <c r="L172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M172">
         <v>1</v>
@@ -32186,16 +32183,16 @@
         <v>0</v>
       </c>
       <c r="T172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X172">
         <v>1</v>
@@ -32207,19 +32204,19 @@
         <v>0</v>
       </c>
       <c r="AA172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB172">
         <v>0</v>
       </c>
-      <c r="AC172">
-        <v>0</v>
-      </c>
-      <c r="AD172">
+      <c r="AC172" s="24">
+        <v>1</v>
+      </c>
+      <c r="AD172" s="24">
         <v>1</v>
       </c>
       <c r="AE172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF172">
         <v>1</v>
@@ -32228,25 +32225,25 @@
         <v>1</v>
       </c>
       <c r="AH172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI172">
         <v>0</v>
       </c>
       <c r="AJ172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK172">
         <v>0</v>
       </c>
       <c r="AL172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM172">
         <v>0</v>
       </c>
-      <c r="AN172" t="s">
-        <v>0</v>
+      <c r="AN172">
+        <v>1</v>
       </c>
       <c r="AO172">
         <v>0</v>
@@ -32255,10 +32252,10 @@
         <v>0</v>
       </c>
       <c r="AQ172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS172">
         <v>1</v>
@@ -32276,7 +32273,7 @@
         <v>0</v>
       </c>
       <c r="AX172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY172">
         <v>1</v>
@@ -32296,25 +32293,25 @@
       <c r="BD172">
         <v>0</v>
       </c>
-      <c r="BE172">
-        <v>0</v>
-      </c>
-      <c r="BF172">
-        <v>1</v>
-      </c>
-      <c r="BG172">
+      <c r="BE172" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF172" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG172" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A173" s="9" t="s">
-        <v>288</v>
+        <v>193</v>
       </c>
       <c r="B173" s="12" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D173" s="11" t="s">
         <v>64</v>
@@ -32326,7 +32323,7 @@
         <v>45</v>
       </c>
       <c r="G173" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H173">
         <v>1</v>
@@ -32335,7 +32332,7 @@
         <v>1</v>
       </c>
       <c r="J173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K173">
         <v>1</v>
@@ -32344,7 +32341,7 @@
         <v>0</v>
       </c>
       <c r="M173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N173">
         <v>1</v>
@@ -32362,19 +32359,19 @@
         <v>0</v>
       </c>
       <c r="S173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V173">
         <v>0</v>
       </c>
       <c r="W173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X173">
         <v>1</v>
@@ -32392,13 +32389,13 @@
         <v>0</v>
       </c>
       <c r="AC173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD173">
         <v>1</v>
       </c>
       <c r="AE173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF173">
         <v>1</v>
@@ -32431,7 +32428,7 @@
         <v>0</v>
       </c>
       <c r="AP173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ173">
         <v>1</v>
@@ -32452,7 +32449,7 @@
         <v>0</v>
       </c>
       <c r="AW173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX173">
         <v>1</v>
@@ -32476,7 +32473,7 @@
         <v>0</v>
       </c>
       <c r="BE173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF173">
         <v>1</v>
@@ -32487,13 +32484,13 @@
     </row>
     <row r="174" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A174" s="9" t="s">
-        <v>107</v>
+        <v>283</v>
       </c>
       <c r="B174" s="12" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D174" s="11" t="s">
         <v>64</v>
@@ -32505,7 +32502,7 @@
         <v>45</v>
       </c>
       <c r="G174" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H174">
         <v>1</v>
@@ -32514,7 +32511,7 @@
         <v>1</v>
       </c>
       <c r="J174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K174">
         <v>1</v>
@@ -32541,10 +32538,10 @@
         <v>0</v>
       </c>
       <c r="S174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U174">
         <v>1</v>
@@ -32556,7 +32553,7 @@
         <v>1</v>
       </c>
       <c r="X174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y174">
         <v>1</v>
@@ -32610,13 +32607,13 @@
         <v>0</v>
       </c>
       <c r="AP174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ174">
         <v>1</v>
       </c>
       <c r="AR174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS174">
         <v>1</v>
@@ -32649,13 +32646,13 @@
         <v>0</v>
       </c>
       <c r="BC174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD174">
         <v>0</v>
       </c>
       <c r="BE174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF174">
         <v>1</v>
@@ -32666,13 +32663,13 @@
     </row>
     <row r="175" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="B175" s="12" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D175" s="11" t="s">
         <v>64</v>
@@ -32684,7 +32681,7 @@
         <v>45</v>
       </c>
       <c r="G175" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -32693,7 +32690,7 @@
         <v>1</v>
       </c>
       <c r="J175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K175">
         <v>1</v>
@@ -32702,7 +32699,7 @@
         <v>0</v>
       </c>
       <c r="M175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N175">
         <v>1</v>
@@ -32732,7 +32729,7 @@
         <v>0</v>
       </c>
       <c r="W175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X175">
         <v>0</v>
@@ -32756,7 +32753,7 @@
         <v>1</v>
       </c>
       <c r="AE175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF175">
         <v>1</v>
@@ -32807,7 +32804,7 @@
         <v>0</v>
       </c>
       <c r="AV175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW175">
         <v>1</v>
@@ -32825,13 +32822,13 @@
         <v>1</v>
       </c>
       <c r="BB175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC175">
         <v>1</v>
       </c>
       <c r="BD175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE175">
         <v>0</v>
@@ -32845,13 +32842,13 @@
     </row>
     <row r="176" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="s">
-        <v>289</v>
+        <v>39</v>
       </c>
       <c r="B176" s="12" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D176" s="11" t="s">
         <v>64</v>
@@ -32863,28 +32860,28 @@
         <v>45</v>
       </c>
       <c r="G176" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H176">
         <v>1</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176">
         <v>0</v>
       </c>
       <c r="K176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L176">
         <v>0</v>
       </c>
       <c r="M176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O176">
         <v>1</v>
@@ -32893,7 +32890,7 @@
         <v>1</v>
       </c>
       <c r="Q176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R176">
         <v>0</v>
@@ -32920,10 +32917,10 @@
         <v>1</v>
       </c>
       <c r="Z176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB176">
         <v>0</v>
@@ -32935,7 +32932,7 @@
         <v>1</v>
       </c>
       <c r="AE176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF176">
         <v>1</v>
@@ -32971,7 +32968,7 @@
         <v>0</v>
       </c>
       <c r="AQ176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR176">
         <v>0</v>
@@ -33001,7 +32998,7 @@
         <v>0</v>
       </c>
       <c r="BA176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB176">
         <v>1</v>
@@ -33010,18 +33007,27 @@
         <v>1</v>
       </c>
       <c r="BD176">
+        <v>1</v>
+      </c>
+      <c r="BE176">
+        <v>0</v>
+      </c>
+      <c r="BF176">
+        <v>1</v>
+      </c>
+      <c r="BG176">
         <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B177" s="12" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C177" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D177" s="11" t="s">
         <v>64</v>
@@ -33033,28 +33039,28 @@
         <v>45</v>
       </c>
       <c r="G177" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H177">
         <v>1</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L177">
         <v>0</v>
       </c>
       <c r="M177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O177">
         <v>1</v>
@@ -33090,22 +33096,22 @@
         <v>1</v>
       </c>
       <c r="Z177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB177">
         <v>0</v>
       </c>
       <c r="AC177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD177">
         <v>1</v>
       </c>
       <c r="AE177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF177">
         <v>1</v>
@@ -33138,10 +33144,10 @@
         <v>0</v>
       </c>
       <c r="AP177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR177">
         <v>0</v>
@@ -33171,30 +33177,21 @@
         <v>0</v>
       </c>
       <c r="BA177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD177">
-        <v>0</v>
-      </c>
-      <c r="BE177">
-        <v>1</v>
-      </c>
-      <c r="BF177">
-        <v>1</v>
-      </c>
-      <c r="BG177">
         <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="s">
-        <v>206</v>
+        <v>282</v>
       </c>
       <c r="B178" s="12" t="s">
         <v>79</v>
@@ -33212,7 +33209,7 @@
         <v>45</v>
       </c>
       <c r="G178" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H178">
         <v>1</v>
@@ -33242,7 +33239,7 @@
         <v>1</v>
       </c>
       <c r="Q178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R178">
         <v>0</v>
@@ -33251,19 +33248,19 @@
         <v>0</v>
       </c>
       <c r="T178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U178">
         <v>1</v>
       </c>
       <c r="V178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W178">
         <v>0</v>
       </c>
       <c r="X178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y178">
         <v>1</v>
@@ -33278,7 +33275,7 @@
         <v>0</v>
       </c>
       <c r="AC178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD178">
         <v>1</v>
@@ -33338,7 +33335,7 @@
         <v>1</v>
       </c>
       <c r="AW178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX178">
         <v>1</v>
@@ -33356,7 +33353,7 @@
         <v>0</v>
       </c>
       <c r="BC178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD178">
         <v>0</v>
@@ -33373,13 +33370,13 @@
     </row>
     <row r="179" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="B179" s="12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C179" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D179" s="11" t="s">
         <v>64</v>
@@ -33391,7 +33388,7 @@
         <v>45</v>
       </c>
       <c r="G179" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H179">
         <v>1</v>
@@ -33409,7 +33406,7 @@
         <v>0</v>
       </c>
       <c r="M179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N179">
         <v>1</v>
@@ -33439,7 +33436,7 @@
         <v>1</v>
       </c>
       <c r="W179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X179">
         <v>1</v>
@@ -33457,7 +33454,7 @@
         <v>0</v>
       </c>
       <c r="AC179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD179">
         <v>1</v>
@@ -33466,10 +33463,10 @@
         <v>1</v>
       </c>
       <c r="AF179">
-        <v>0</v>
-      </c>
-      <c r="AG179" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AG179">
+        <v>1</v>
       </c>
       <c r="AH179">
         <v>0</v>
@@ -33496,13 +33493,13 @@
         <v>0</v>
       </c>
       <c r="AP179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ179">
         <v>1</v>
       </c>
       <c r="AR179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS179">
         <v>1</v>
@@ -33514,10 +33511,10 @@
         <v>0</v>
       </c>
       <c r="AV179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX179">
         <v>1</v>
@@ -33526,7 +33523,7 @@
         <v>1</v>
       </c>
       <c r="AZ179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA179">
         <v>1</v>
@@ -33535,30 +33532,30 @@
         <v>0</v>
       </c>
       <c r="BC179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD179">
         <v>0</v>
       </c>
-      <c r="BE179" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF179" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG179" t="s">
+      <c r="BE179">
+        <v>1</v>
+      </c>
+      <c r="BF179">
+        <v>1</v>
+      </c>
+      <c r="BG179">
         <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="B180" s="12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D180" s="11" t="s">
         <v>64</v>
@@ -33570,7 +33567,7 @@
         <v>45</v>
       </c>
       <c r="G180" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H180">
         <v>1</v>
@@ -33585,10 +33582,10 @@
         <v>1</v>
       </c>
       <c r="L180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N180">
         <v>1</v>
@@ -33597,7 +33594,7 @@
         <v>1</v>
       </c>
       <c r="P180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q180">
         <v>1</v>
@@ -33621,7 +33618,7 @@
         <v>1</v>
       </c>
       <c r="X180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y180">
         <v>1</v>
@@ -33642,13 +33639,13 @@
         <v>1</v>
       </c>
       <c r="AE180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF180">
-        <v>1</v>
-      </c>
-      <c r="AG180">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AG180" t="s">
+        <v>0</v>
       </c>
       <c r="AH180">
         <v>0</v>
@@ -33681,7 +33678,7 @@
         <v>1</v>
       </c>
       <c r="AR180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS180">
         <v>1</v>
@@ -33699,13 +33696,13 @@
         <v>1</v>
       </c>
       <c r="AX180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY180">
         <v>1</v>
       </c>
       <c r="AZ180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA180">
         <v>1</v>
@@ -33714,60 +33711,60 @@
         <v>0</v>
       </c>
       <c r="BC180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD180">
         <v>0</v>
       </c>
-      <c r="BE180">
-        <v>0</v>
-      </c>
-      <c r="BF180">
-        <v>1</v>
-      </c>
-      <c r="BG180">
+      <c r="BE180" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF180" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG180" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A181" s="25" t="s">
-        <v>247</v>
+      <c r="A181" s="9" t="s">
+        <v>206</v>
       </c>
       <c r="B181" s="12" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C181" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>220</v>
+        <v>64</v>
       </c>
       <c r="E181" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F181" s="11" t="s">
         <v>45</v>
       </c>
       <c r="G181" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I181">
         <v>1</v>
       </c>
       <c r="J181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N181">
         <v>1</v>
@@ -33794,7 +33791,7 @@
         <v>1</v>
       </c>
       <c r="V181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W181">
         <v>1</v>
@@ -33809,7 +33806,7 @@
         <v>0</v>
       </c>
       <c r="AA181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB181">
         <v>0</v>
@@ -33827,10 +33824,10 @@
         <v>1</v>
       </c>
       <c r="AG181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI181">
         <v>0</v>
@@ -33847,8 +33844,8 @@
       <c r="AM181">
         <v>0</v>
       </c>
-      <c r="AN181">
-        <v>1</v>
+      <c r="AN181" t="s">
+        <v>0</v>
       </c>
       <c r="AO181">
         <v>0</v>
@@ -33857,7 +33854,7 @@
         <v>0</v>
       </c>
       <c r="AQ181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR181">
         <v>0</v>
@@ -33872,13 +33869,13 @@
         <v>0</v>
       </c>
       <c r="AV181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW181">
         <v>1</v>
       </c>
       <c r="AX181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY181">
         <v>1</v>
@@ -33890,7 +33887,7 @@
         <v>1</v>
       </c>
       <c r="BB181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC181">
         <v>1</v>
@@ -33898,19 +33895,19 @@
       <c r="BD181">
         <v>0</v>
       </c>
-      <c r="BE181" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF181" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG181" t="s">
+      <c r="BE181">
+        <v>0</v>
+      </c>
+      <c r="BF181">
+        <v>1</v>
+      </c>
+      <c r="BG181">
         <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A182" s="25" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="B182" s="12" t="s">
         <v>68</v>
@@ -33919,7 +33916,7 @@
         <v>93</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="E182" s="11" t="s">
         <v>101</v>
@@ -33928,7 +33925,7 @@
         <v>45</v>
       </c>
       <c r="G182" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -34089,7 +34086,7 @@
     </row>
     <row r="183" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A183" s="22" t="s">
-        <v>121</v>
+        <v>300</v>
       </c>
       <c r="B183" s="23" t="s">
         <v>68</v>
@@ -34098,7 +34095,7 @@
         <v>93</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E183" s="5" t="s">
         <v>99</v>
@@ -34107,7 +34104,7 @@
         <v>45</v>
       </c>
       <c r="G183" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H183" s="5">
         <v>1</v>
@@ -34268,7 +34265,7 @@
     </row>
     <row r="184" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A184" s="22" t="s">
-        <v>235</v>
+        <v>301</v>
       </c>
       <c r="B184" s="12" t="s">
         <v>68</v>
@@ -34277,7 +34274,7 @@
         <v>93</v>
       </c>
       <c r="D184" s="11" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E184" s="11" t="s">
         <v>99</v>
@@ -34286,7 +34283,7 @@
         <v>46</v>
       </c>
       <c r="G184" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H184">
         <v>0</v>
@@ -34447,7 +34444,7 @@
     </row>
     <row r="185" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A185" s="25" t="s">
-        <v>234</v>
+        <v>302</v>
       </c>
       <c r="B185" s="12" t="s">
         <v>71</v>
@@ -34456,7 +34453,7 @@
         <v>93</v>
       </c>
       <c r="D185" s="11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E185" s="11" t="s">
         <v>101</v>
@@ -34465,7 +34462,7 @@
         <v>46</v>
       </c>
       <c r="G185" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H185">
         <v>0</v>
